--- a/hourly datasets/PlantID_year-1final.xlsx
+++ b/hourly datasets/PlantID_year-1final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B681"/>
+  <dimension ref="A1:C646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,277 +444,384 @@
           <t>Coef.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>8906</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2934533192452728</v>
+        <v>0.2934659564046829</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2552831820909245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8227</v>
+        <v>8226</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3340830252151319</v>
+        <v>0.3464270789835195</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.105192619583168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8226</v>
+        <v>8224</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3464372320677969</v>
+        <v>0.3749854904857852</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2317020083955866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8224</v>
+        <v>8223</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3749856775171621</v>
+        <v>0.3849108427890708</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2431436146387314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8223</v>
+        <v>8222</v>
       </c>
       <c r="B6" t="n">
-        <v>0.384926685875473</v>
+        <v>0.2958418919236087</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1010518236891748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8222</v>
+        <v>8219</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2958472374543518</v>
+        <v>0.3550855396266722</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.219929792252068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8219</v>
+        <v>8102</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3550848709507674</v>
+        <v>0.3842819047611766</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2460476918149926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8102</v>
+        <v>8069</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3842819047611766</v>
+        <v>0.3638587277806695</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3382818607455609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8069</v>
+        <v>8066</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3638595450175098</v>
+        <v>0.3027419851589173</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3024643821341753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8066</v>
+        <v>8063</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3027419851589173</v>
+        <v>0.3690303734784814</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1857614117299875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8063</v>
+        <v>8059</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3690250996037154</v>
+        <v>0.2486903404652874</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1186150309667145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8059</v>
+        <v>8056</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2267719007498679</v>
+        <v>0.3571426512920425</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2518020035998523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8056</v>
+        <v>8054</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3571455532490886</v>
+        <v>0.370510579376967</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1179407285434843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8054</v>
+        <v>8049</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3704862750421464</v>
+        <v>0.3016867780140723</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2796196872283412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8049</v>
+        <v>8048</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2788698223211735</v>
+        <v>0.3011934447464788</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2525208819365266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8048</v>
+        <v>8042</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3011934447464788</v>
+        <v>0.4097465674393803</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3856134535823686</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8042</v>
+        <v>8023</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4097465674393803</v>
+        <v>0.3030746546715927</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2457569682479834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8023</v>
+        <v>8012</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3030769690637277</v>
+        <v>0.2605252749249847</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2594637957134253</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8012</v>
+        <v>8008</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2605252749249847</v>
+        <v>0.2226507778237986</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2288535469349549</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8008</v>
+        <v>8007</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2226507778237986</v>
+        <v>0.2579618044133798</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2552891128894868</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8007</v>
+        <v>8006</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2557627331009157</v>
+        <v>0.300944319530609</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2155434572231602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8006</v>
+        <v>8002</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3009426704798105</v>
+        <v>0.2827867744686009</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1276887408272903</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8002</v>
+        <v>7902</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2827825792196756</v>
+        <v>0.3314894703948881</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2109196539758516</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7902</v>
+        <v>7829</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3314882895595119</v>
+        <v>0.2967846973677185</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2884761646983107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7829</v>
+        <v>7790</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2967846973677185</v>
+        <v>0.3213112779763732</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3166696017703626</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7790</v>
+        <v>7760</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3213126279724584</v>
+        <v>0.3334297765824037</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3311711854981886</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7760</v>
+        <v>7754</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3334297765824033</v>
+        <v>0.31283690283642</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.08075520580047371</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7754</v>
+        <v>7749</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31283690283642</v>
+        <v>0.3155274725589404</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.08412360637998401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7749</v>
+        <v>7698</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3154801199423608</v>
+        <v>0.5033816592275059</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4992912118258778</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7698</v>
+        <v>7697</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5033816592275059</v>
+        <v>0.5224964419949339</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5191932007426491</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7697</v>
+        <v>7693</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5030911902283446</v>
+        <v>0.3831089881498078</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3853326123896853</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7693</v>
+        <v>7605</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3831089881498078</v>
+        <v>0.4962444303355619</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.4971575933013876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7605</v>
+        <v>7604</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4962304243567903</v>
+        <v>0.4991761777160858</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1193666315699891</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7604</v>
+        <v>7537</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4991761777160842</v>
+        <v>0.5159702796878268</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2384435900045745</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +829,10 @@
         <v>7515</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3434533717520923</v>
+        <v>0.3434699678798862</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2549901146457171</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +840,10 @@
         <v>7504</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2838332852265637</v>
+        <v>0.2838779205724944</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.114528908160882</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +851,10 @@
         <v>7456</v>
       </c>
       <c r="B38" t="n">
-        <v>0.341978039321654</v>
+        <v>0.3419702787689473</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1475034689737008</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +862,10 @@
         <v>7425</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2931651190572204</v>
+        <v>0.2931669341166387</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.08220316745463302</v>
       </c>
     </row>
     <row r="40">
@@ -756,5133 +875,6674 @@
       <c r="B40" t="n">
         <v>0.2562955048817678</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.2546965097568341</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7343</v>
+        <v>7345</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5622679127108562</v>
+        <v>0.3728201471399122</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1720226334112604</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7325</v>
+        <v>7343</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2843385219892233</v>
+        <v>0.5622679127108562</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.2718176125843748</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7318</v>
+        <v>7325</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2825847388016544</v>
+        <v>0.284337298339718</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2892909301632971</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7315</v>
+        <v>7318</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4753089365774498</v>
+        <v>0.2825847388016562</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2870886898875802</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3303278826668961</v>
+        <v>0.4753089365774498</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.393610161508479</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7288</v>
+        <v>7302</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2788961093123788</v>
+        <v>0.3303326416366202</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1798874942099634</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7277</v>
+        <v>7288</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2888579844515453</v>
+        <v>0.2788961093123788</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.228526652793738</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7270</v>
+        <v>7277</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2602004353016857</v>
+        <v>0.2888177697165341</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2748191177231081</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7266</v>
+        <v>7270</v>
       </c>
       <c r="B49" t="n">
-        <v>0.379016555515251</v>
+        <v>0.2602004353016857</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1986539041593695</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7258</v>
+        <v>7266</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3391331783587198</v>
+        <v>0.379016555515251</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1308760339416282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7254</v>
+        <v>7258</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3264485022720547</v>
+        <v>0.3391142271237262</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.18359769730144</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7242</v>
+        <v>7254</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3286852653381612</v>
+        <v>0.3264501270991221</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1692095197660752</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7237</v>
+        <v>7242</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2876296747719504</v>
+        <v>0.4493925524957186</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.1373666305489828</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7213</v>
+        <v>7237</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3442892846350477</v>
+        <v>0.2876321866012937</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1667315356012916</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7210</v>
+        <v>7213</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3629265848479284</v>
+        <v>0.3442892846350477</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.3352072710202033</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7203</v>
+        <v>7210</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2559808262244738</v>
+        <v>0.3630247456597457</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.26343216468417</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7159</v>
+        <v>7203</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2566349241565106</v>
+        <v>0.2559675062931361</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1627975565840295</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7158</v>
+        <v>7185</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2511303662873443</v>
+        <v>0.6268986768951931</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5769490253615421</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7155</v>
+        <v>7159</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2849722429953799</v>
+        <v>0.2566349241565106</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1939945119175007</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7146</v>
+        <v>7158</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2830023910556177</v>
+        <v>0.2511166659290984</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1188749478978407</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7145</v>
+        <v>7155</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3009155936271882</v>
+        <v>0.2849966380235466</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1474797277127235</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7138</v>
+        <v>7146</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2711206643204842</v>
+        <v>0.2832612703334996</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2784014821442655</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7097</v>
+        <v>7145</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4112619466216118</v>
+        <v>0.4635532132082381</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1480157544997094</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7082</v>
+        <v>7138</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2995686745403463</v>
+        <v>0.2711206643204842</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.2386881485725282</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7063</v>
+        <v>7097</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6849568831662994</v>
+        <v>0.4116962233292816</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3505095168285116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7030</v>
+        <v>7082</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3712160020174166</v>
+        <v>0.2995695712314188</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2849758095830675</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7013</v>
+        <v>7063</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2825617075261267</v>
+        <v>0.6849603755939798</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6335437910257897</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6823</v>
+        <v>7030</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3173759271010557</v>
+        <v>0.3712160020174166</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.3056000388901244</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6776</v>
+        <v>7013</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2063365873939089</v>
+        <v>0.2825906328063844</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1940700591143459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6772</v>
+        <v>6823</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3236097817783711</v>
+        <v>0.3173750751102562</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1814923414750031</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6768</v>
+        <v>6776</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3336480245504814</v>
+        <v>0.2063365873939089</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.2095081369788765</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6761</v>
+        <v>6772</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3135171141515251</v>
+        <v>0.3236055290114386</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1784019808542024</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6705</v>
+        <v>6768</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3087567837817355</v>
+        <v>0.3336488129405817</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1582497559698509</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6664</v>
+        <v>6761</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3273790369335661</v>
+        <v>0.3130113081274111</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.3032864579784793</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6648</v>
+        <v>6705</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3236548274233919</v>
+        <v>0.3087567837817355</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.2960523532257576</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6641</v>
+        <v>6664</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3186574149969398</v>
+        <v>0.3273791241216423</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1740303864501991</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6639</v>
+        <v>6648</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3384709655193712</v>
+        <v>0.3234936162389656</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1850493701469041</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6558</v>
+        <v>6641</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3273900453322101</v>
+        <v>0.3186574149969398</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.2022499714461847</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>6481</v>
+        <v>6639</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3280174408658243</v>
+        <v>0.3384709655193712</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.3125553692200536</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6469</v>
+        <v>6558</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3157936709395669</v>
+        <v>0.327401046026137</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.2113941815960828</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6373</v>
+        <v>6481</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2964056659713896</v>
+        <v>0.3280484518305566</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1774795150727969</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6264</v>
+        <v>6469</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3875878346444043</v>
+        <v>0.3157936709395666</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1100858713540334</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6257</v>
+        <v>6373</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3443691185109624</v>
+        <v>0.3630257653414641</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1241715176294586</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6254</v>
+        <v>6264</v>
       </c>
       <c r="B84" t="n">
-        <v>0.359852481650804</v>
+        <v>0.3875881698818399</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1587668844800981</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6249</v>
+        <v>6257</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3419319070094972</v>
+        <v>0.3443691185109624</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.346088987760594</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6248</v>
+        <v>6254</v>
       </c>
       <c r="B86" t="n">
-        <v>0.332833867737879</v>
+        <v>0.3598652043783413</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1899819696026784</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6243</v>
+        <v>6249</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3414675065539147</v>
+        <v>0.3419256529723892</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.2549128926084819</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6213</v>
+        <v>6248</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3090520939335424</v>
+        <v>0.332833867737879</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1000963826042535</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6204</v>
+        <v>6243</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3270197958274854</v>
+        <v>0.3414668861618768</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.3340153926209938</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6195</v>
+        <v>6213</v>
       </c>
       <c r="B90" t="n">
-        <v>0.440527711002256</v>
+        <v>0.3090520939335424</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1981469876095622</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6194</v>
+        <v>6204</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3379082399005556</v>
+        <v>0.3270197958274854</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.3152795578779264</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6193</v>
+        <v>6195</v>
       </c>
       <c r="B92" t="n">
-        <v>0.337593275520053</v>
+        <v>0.4405579950912633</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.2391104932437472</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6183</v>
+        <v>6194</v>
       </c>
       <c r="B93" t="n">
-        <v>0.291042270481946</v>
+        <v>0.3379082399005556</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.3350656594452064</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6181</v>
+        <v>6193</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3168135687319686</v>
+        <v>0.337593275520053</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.3351890845134828</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6179</v>
+        <v>6183</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3580096888085719</v>
+        <v>0.2910435737333642</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1379637013233869</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6178</v>
+        <v>6181</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3691630315254752</v>
+        <v>0.3168347330145622</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.2612799011732697</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6177</v>
+        <v>6179</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3539582464414512</v>
+        <v>0.3580096888085719</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3397488323588329</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6170</v>
+        <v>6178</v>
       </c>
       <c r="B98" t="n">
-        <v>0.295697611279661</v>
+        <v>0.3691804613558302</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1786794059315214</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6166</v>
+        <v>6177</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3220742626870866</v>
+        <v>0.3539582676334612</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1911269008103875</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6165</v>
+        <v>6170</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3327878974284107</v>
+        <v>0.2956981495678737</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.2640718778446239</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6156</v>
+        <v>6166</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3633724087700276</v>
+        <v>0.3220745919408405</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1695920647503058</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>6155</v>
+        <v>6165</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3580848174402517</v>
+        <v>0.3327878974284107</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.3345001859825885</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>6147</v>
+        <v>6156</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3263357316088406</v>
+        <v>0.3633432342981112</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.1735973372478369</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6146</v>
+        <v>6155</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3276117993280769</v>
+        <v>0.358084256723873</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.216065094501276</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>6139</v>
+        <v>6147</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3020915803504463</v>
+        <v>0.3263357316088406</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3153734425435613</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>6138</v>
+        <v>6146</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3369318887484132</v>
+        <v>0.3276117993280769</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.319407266501698</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>6137</v>
+        <v>6139</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3233779125175044</v>
+        <v>0.3020915803504463</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.3026349217524046</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>6136</v>
+        <v>6138</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3577214422469205</v>
+        <v>0.3371031247947901</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1971289577734632</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6124</v>
+        <v>6137</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3704277057603594</v>
+        <v>0.3233779125175044</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.308814595455888</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>6113</v>
+        <v>6136</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3489525803906036</v>
+        <v>0.3577214422469205</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.3334170018200969</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6106</v>
+        <v>6124</v>
       </c>
       <c r="B111" t="n">
-        <v>0.31964932823207</v>
+        <v>0.370418989101164</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.3588756367847005</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>6101</v>
+        <v>6113</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2826966295729831</v>
+        <v>0.3489525803906036</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.1889333248872764</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>6098</v>
+        <v>6106</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3052723507841854</v>
+        <v>0.319656751057885</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.1514269438078588</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>6096</v>
+        <v>6101</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3032065726303682</v>
+        <v>0.2826966295729831</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.1103156034784834</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>6095</v>
+        <v>6098</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3422695527071401</v>
+        <v>0.3052910497629016</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1042757437492371</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>6094</v>
+        <v>6096</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3769725197743126</v>
+        <v>0.3032058569074101</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.1875764228634436</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>6090</v>
+        <v>6095</v>
       </c>
       <c r="B117" t="n">
-        <v>0.3333046523506796</v>
+        <v>0.3422962858307151</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.1609766063618505</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6089</v>
+        <v>6094</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2838804783036296</v>
+        <v>0.376971334873595</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3565534867809991</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6085</v>
+        <v>6090</v>
       </c>
       <c r="B119" t="n">
-        <v>0.3288269629699331</v>
+        <v>0.3333046523506796</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.3342933508665613</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>6082</v>
+        <v>6089</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3737069954240587</v>
+        <v>0.2837204211363415</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.122412595422292</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>6077</v>
+        <v>6085</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3215134497146538</v>
+        <v>0.3288269629699331</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.3148052794133434</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>6076</v>
+        <v>6082</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3302456265977469</v>
+        <v>0.3737122347088168</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.1823450057756009</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>6073</v>
+        <v>6077</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3399558391963928</v>
+        <v>0.3215138262309875</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.2416965334795455</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>6071</v>
+        <v>6076</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3673298622734354</v>
+        <v>0.3302456265977469</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.3239617720813868</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>6068</v>
+        <v>6073</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3155868468796114</v>
+        <v>0.339957215126419</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.279608859565133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>6065</v>
+        <v>6071</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3639261116615305</v>
+        <v>0.3673523288059505</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.3095257830032552</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>6064</v>
+        <v>6068</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3056620191752148</v>
+        <v>0.3155868468796114</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.2998803742869751</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>6061</v>
+        <v>6065</v>
       </c>
       <c r="B128" t="n">
-        <v>0.3499790405321485</v>
+        <v>0.3639264724299136</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.1508836667453975</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6055</v>
+        <v>6064</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3088051655810478</v>
+        <v>0.305662023013165</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1212424360406017</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>6052</v>
+        <v>6061</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3923593117047778</v>
+        <v>0.3499790454367737</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3249596092473767</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>6046</v>
+        <v>6055</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2820478210131113</v>
+        <v>0.3088051655810478</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.3105008517215546</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>6042</v>
+        <v>6052</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3104496587065028</v>
+        <v>0.3923590794273906</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.4004107959363057</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6041</v>
+        <v>6046</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3147694739541958</v>
+        <v>0.4248763317070285</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.2484111875795892</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>6035</v>
+        <v>6042</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3742678165409855</v>
+        <v>0.3104497264716702</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.2462542161674691</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>6034</v>
+        <v>6041</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3207563205198985</v>
+        <v>0.3147694739541958</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.27918872196837</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>6031</v>
+        <v>6035</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3163038755215004</v>
+        <v>0.3743496212590882</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.2249264779137213</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>6030</v>
+        <v>6034</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3195993793981592</v>
+        <v>0.3207563205198985</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.3002374609578329</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>6025</v>
+        <v>6031</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2748152708144283</v>
+        <v>0.3163028098772257</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.1384651926112113</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>6021</v>
+        <v>6030</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3547364623587134</v>
+        <v>0.3196028706130619</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.1969725089893197</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6019</v>
+        <v>6025</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3356384983819409</v>
+        <v>0.2737684542269312</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2125440424800132</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6018</v>
+        <v>6021</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3337471065178212</v>
+        <v>0.3547364623587134</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.3620783212013401</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>6017</v>
+        <v>6019</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3278429637910033</v>
+        <v>0.33563710026894</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.1692718540179748</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>6016</v>
+        <v>6018</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4048153026225259</v>
+        <v>0.3337471065178212</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.347046689799906</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6013</v>
+        <v>6017</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3387491723902149</v>
+        <v>0.3278505040983469</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.1969429470381575</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6009</v>
+        <v>6016</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3158734266963344</v>
+        <v>0.4048245553924713</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1335255715162088</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>6004</v>
+        <v>6013</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3972752133126743</v>
+        <v>0.3370646588223118</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.2668503220116027</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6002</v>
+        <v>6009</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3405710685731207</v>
+        <v>0.3158707695991919</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.2340325958226757</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5083</v>
+        <v>6004</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2684208440388441</v>
+        <v>0.3973025314858016</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2699730365056539</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4941</v>
+        <v>6002</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3351169998101036</v>
+        <v>0.3405710685731207</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.2943375760510203</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4940</v>
+        <v>5083</v>
       </c>
       <c r="B150" t="n">
-        <v>0.363249008345379</v>
+        <v>0.2684208440388441</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.05617497773148206</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4939</v>
+        <v>4941</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3581313799597273</v>
+        <v>0.3351169998101036</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.3348731353255578</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4938</v>
+        <v>4940</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3607088480322672</v>
+        <v>0.3632528383535725</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.2858698683626135</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>4937</v>
+        <v>4939</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3793186335443454</v>
+        <v>0.3581302840294045</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.2572798476677765</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>4271</v>
+        <v>4938</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3043944663482328</v>
+        <v>0.3607088480322667</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.3604322771545121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4266</v>
+        <v>4937</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3022196411199503</v>
+        <v>0.3793238454415185</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.2031118806185117</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4259</v>
+        <v>4271</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2646081029652347</v>
+        <v>0.3044053120349267</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.193101815261263</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>4233</v>
+        <v>4266</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3140753138075315</v>
+        <v>0.3023829093831815</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.2118265489715503</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4195</v>
+        <v>4259</v>
       </c>
       <c r="B158" t="n">
-        <v>0.3477588605865604</v>
+        <v>0.2646155532678988</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.1025290526893241</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>4162</v>
+        <v>4195</v>
       </c>
       <c r="B159" t="n">
-        <v>0.29613232442854</v>
+        <v>0.34783455282031</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.2672063352339233</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4158</v>
+        <v>4162</v>
       </c>
       <c r="B160" t="n">
-        <v>0.2790352060174783</v>
+        <v>0.29613232442854</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.2912022820852627</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4146</v>
+        <v>4158</v>
       </c>
       <c r="B161" t="n">
-        <v>0.2837809673139659</v>
+        <v>0.2790352060174783</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.2580653428289561</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4140</v>
+        <v>4146</v>
       </c>
       <c r="B162" t="n">
-        <v>0.2873612373828587</v>
+        <v>0.284355048179484</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.1292563229592054</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4078</v>
+        <v>4140</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3138312537287178</v>
+        <v>0.2873694606469356</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.2073072594302142</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4076</v>
+        <v>4078</v>
       </c>
       <c r="B164" t="n">
-        <v>0.2718115577268518</v>
+        <v>0.3138312537287178</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.2155770666433714</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4072</v>
+        <v>4076</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2820884844045772</v>
+        <v>0.2718115577268518</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.2383436051358701</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4057</v>
+        <v>4072</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2901869954688492</v>
+        <v>0.2820884844045772</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.276659235581316</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3476459059687351</v>
+        <v>0.3202583181463829</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.2368731826167148</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>4050</v>
+        <v>4054</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3555892854857317</v>
+        <v>0.3476459059687351</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.3213383973480147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4041</v>
+        <v>4050</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3390674576008764</v>
+        <v>0.3555892854857317</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.2460299895323163</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4040</v>
+        <v>4042</v>
       </c>
       <c r="B170" t="n">
-        <v>0.2644287115122327</v>
+        <v>0.788043446637921</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.7607727925783826</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>3992</v>
+        <v>4041</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3048744257121663</v>
+        <v>0.3390674576008764</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.3414107032402454</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3982</v>
+        <v>4040</v>
       </c>
       <c r="B172" t="n">
-        <v>0.2992735345897249</v>
+        <v>0.2644303381558024</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.2410172099164881</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>3954</v>
+        <v>3992</v>
       </c>
       <c r="B173" t="n">
-        <v>0.3348709244132296</v>
+        <v>0.3048036604489702</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.2545107464811686</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3948</v>
+        <v>3982</v>
       </c>
       <c r="B174" t="n">
-        <v>0.3953727324438668</v>
+        <v>0.2992735345897268</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.1890716145531867</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3947</v>
+        <v>3954</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3783288023206116</v>
+        <v>0.3348709244132296</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.3337844108489449</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3332655595002323</v>
+        <v>0.3953772636941596</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.2235245903431803</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3945</v>
+        <v>3947</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2900910514990593</v>
+        <v>0.3783289069727583</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.3664162218856991</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="B178" t="n">
-        <v>0.3772864941758312</v>
+        <v>0.3332629511313548</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.1641721702725147</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="B179" t="n">
-        <v>0.3831573666835585</v>
+        <v>0.290085541656082</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.18593466821555</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>3942</v>
+        <v>3944</v>
       </c>
       <c r="B180" t="n">
-        <v>0.3152628540290986</v>
+        <v>0.3772864941758312</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.3442936426049124</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>3938</v>
+        <v>3943</v>
       </c>
       <c r="B181" t="n">
-        <v>0.3952434566705392</v>
+        <v>0.3831564678976116</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.3805654809047521</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3936</v>
+        <v>3942</v>
       </c>
       <c r="B182" t="n">
-        <v>0.383054121826896</v>
+        <v>0.3152679297515824</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.1769739469308725</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3935</v>
+        <v>3938</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3699818671377861</v>
+        <v>0.3952434566705392</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.3924216223656223</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3845</v>
+        <v>3936</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3187150556279937</v>
+        <v>0.383054121826896</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.3637123976155426</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3809</v>
+        <v>3935</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3385434798512678</v>
+        <v>0.3699818671377861</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.3675418266768049</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3804</v>
+        <v>3845</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3450928855077602</v>
+        <v>0.3187150556279937</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.2920306307566511</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>3803</v>
+        <v>3809</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3333628558438356</v>
+        <v>0.3385466258002486</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.3101792992678035</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3796</v>
+        <v>3804</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3456513422297451</v>
+        <v>0.3450876521326977</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.3240950343350882</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3788</v>
+        <v>3803</v>
       </c>
       <c r="B189" t="n">
-        <v>0.3316132149175249</v>
+        <v>0.3333628558438356</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.3029416519150768</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3776</v>
+        <v>3796</v>
       </c>
       <c r="B190" t="n">
-        <v>0.3215880723778081</v>
+        <v>0.3456528499699248</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.2196137049978417</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3775</v>
+        <v>3788</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4904589816975059</v>
+        <v>0.3316132149175249</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.2625984754993227</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3648</v>
+        <v>3776</v>
       </c>
       <c r="B192" t="n">
-        <v>0.3244697580695453</v>
+        <v>0.3215906446063966</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.2730650633069277</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3644</v>
+        <v>3775</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4070104368669386</v>
+        <v>0.4904589816975059</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.3802564378200514</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3628</v>
+        <v>3482</v>
       </c>
       <c r="B194" t="n">
-        <v>0.3346873660688892</v>
+        <v>0.4187918987503211</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1682385521206753</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3627</v>
+        <v>3478</v>
       </c>
       <c r="B195" t="n">
-        <v>0.2946417218471535</v>
+        <v>0.3479850328543659</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.3116155185508137</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3613</v>
+        <v>3477</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3389117252678265</v>
+        <v>0.42354346279215</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.2619763988469609</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3612</v>
+        <v>3476</v>
       </c>
       <c r="B197" t="n">
-        <v>0.341574924659249</v>
+        <v>0.3414965307752422</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.2344925871429717</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3611</v>
+        <v>3471</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3347465494437389</v>
+        <v>0.3509154448710929</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.2710575740133686</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3610</v>
+        <v>3470</v>
       </c>
       <c r="B199" t="n">
-        <v>0.323897673653341</v>
+        <v>0.3172920963356007</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.2987890214801107</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3609</v>
+        <v>3468</v>
       </c>
       <c r="B200" t="n">
-        <v>0.315850040383121</v>
+        <v>0.3413426538655155</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.2774636581873685</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3602</v>
+        <v>3466</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3208402942685745</v>
+        <v>0.3589722429328758</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.3060619408033657</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3601</v>
+        <v>3464</v>
       </c>
       <c r="B202" t="n">
-        <v>0.3744677661410915</v>
+        <v>0.3532402026875984</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.2935867429548376</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3576</v>
+        <v>3461</v>
       </c>
       <c r="B203" t="n">
-        <v>0.3193829111903415</v>
+        <v>0.3039855904944436</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.1934171801226531</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3574</v>
+        <v>3460</v>
       </c>
       <c r="B204" t="n">
-        <v>0.3338806086041669</v>
+        <v>0.3609420090447525</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.3111426431362256</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3561</v>
+        <v>3459</v>
       </c>
       <c r="B205" t="n">
-        <v>0.3303181501280966</v>
+        <v>0.3492939662604566</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.3206217302130997</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3559</v>
+        <v>3457</v>
       </c>
       <c r="B206" t="n">
-        <v>0.2480545190403217</v>
+        <v>0.3447569060954748</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.341036240703169</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3549</v>
+        <v>3455</v>
       </c>
       <c r="B207" t="n">
-        <v>0.3850259044542909</v>
+        <v>0.3227847510400181</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.2480150088537822</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3527</v>
+        <v>3454</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3241326381340739</v>
+        <v>0.3518763012337484</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.2688034266179461</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3526</v>
+        <v>3453</v>
       </c>
       <c r="B209" t="n">
-        <v>0.28710404769183</v>
+        <v>0.3400439215667727</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.248393498989283</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3524</v>
+        <v>3452</v>
       </c>
       <c r="B210" t="n">
-        <v>0.2896527585693945</v>
+        <v>0.3414478541989683</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.2775890344647719</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3523</v>
+        <v>3443</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3468064124420053</v>
+        <v>0.3328079387848661</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.286260037966202</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3508</v>
+        <v>3442</v>
       </c>
       <c r="B212" t="n">
-        <v>0.3573798528191831</v>
+        <v>0.3265120818490624</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1349169576478534</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3507</v>
+        <v>3441</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3670951664308127</v>
+        <v>0.3552147583082004</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.252365398778425</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3506</v>
+        <v>3440</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3614446216942154</v>
+        <v>0.3339409753882561</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.3087556828167088</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3504</v>
+        <v>3439</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3445718423820696</v>
+        <v>0.3057614018754033</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.2276926553651901</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3503</v>
+        <v>3438</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3092520724131639</v>
+        <v>0.3387643659530741</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.2980051806363619</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3502</v>
+        <v>3436</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3629749318797365</v>
+        <v>0.3553507911990711</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.2596214495862367</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3500</v>
+        <v>3407</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3610757587590174</v>
+        <v>0.3458371028333699</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.345776790367376</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3497</v>
+        <v>3406</v>
       </c>
       <c r="B219" t="n">
-        <v>0.317960049872159</v>
+        <v>0.3281717601101556</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.2671380394310059</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3494</v>
+        <v>3405</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3564702318511205</v>
+        <v>0.3524785611495324</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.2321043947872216</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3493</v>
+        <v>3403</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3023014976117612</v>
+        <v>0.3669082511470456</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.3282624095205777</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3492</v>
+        <v>3399</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3562750559339351</v>
+        <v>0.344100848645717</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.1926377022092557</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3491</v>
+        <v>3396</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3439295860694162</v>
+        <v>0.4131473656431423</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.2598655849435759</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3490</v>
+        <v>3393</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3656368094593888</v>
+        <v>0.5083504672400119</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.3787359135987013</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3489</v>
+        <v>3344</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3175368051393508</v>
+        <v>0.6115287137633854</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1838589621969078</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3485</v>
+        <v>3317</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3513335146890093</v>
+        <v>0.3501093646878815</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.1949166936968149</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3484</v>
+        <v>3298</v>
       </c>
       <c r="B227" t="n">
-        <v>0.343578417888517</v>
+        <v>0.3878226918610421</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.2139939262045476</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3483</v>
+        <v>3297</v>
       </c>
       <c r="B228" t="n">
-        <v>0.2787167238303635</v>
+        <v>0.3980213262008766</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.2816368977045142</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>3482</v>
+        <v>3295</v>
       </c>
       <c r="B229" t="n">
-        <v>0.4187916529900279</v>
+        <v>0.3557473977559198</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.3696507503325152</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3478</v>
+        <v>3287</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3479851476609846</v>
+        <v>0.3868476202159505</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.2835827089984497</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3477</v>
+        <v>3285</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3892120082986936</v>
+        <v>0.5619245950240376</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.1134494656683468</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3476</v>
+        <v>3280</v>
       </c>
       <c r="B232" t="n">
-        <v>0.341497558873961</v>
+        <v>0.423082311240372</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.2424013067884706</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3471</v>
+        <v>3264</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3509036470938456</v>
+        <v>0.3424493094861647</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.2851088971257013</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3470</v>
+        <v>3250</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3172920963356007</v>
+        <v>0.6513448872730777</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.2460803002439763</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>3468</v>
+        <v>3236</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3413348851212814</v>
+        <v>0.2935442940160697</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.2135474528847344</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3466</v>
+        <v>3181</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3589760368643169</v>
+        <v>0.3399635631613928</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.2393423127308679</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>3464</v>
+        <v>3179</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3376599339668573</v>
+        <v>0.3638404543780996</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.3723942386725935</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>3461</v>
+        <v>3178</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3036689812919255</v>
+        <v>0.3688104012090384</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.237217755957686</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3460</v>
+        <v>3176</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3609388814560835</v>
+        <v>0.3787556862260351</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.3137608884519306</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3459</v>
+        <v>3169</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3492939662604566</v>
+        <v>0.6598747165832244</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.2392059330389276</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>3457</v>
+        <v>3163</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3447569060954748</v>
+        <v>0.2428518435471364</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.2306284193666506</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3455</v>
+        <v>3162</v>
       </c>
       <c r="B242" t="n">
-        <v>0.3227315445971362</v>
+        <v>0.2517728649640325</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.2287354261821969</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>3454</v>
+        <v>3161</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3519395215927227</v>
+        <v>0.5792976002812424</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.24771503690562</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3453</v>
+        <v>3160</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3400453051384549</v>
+        <v>0.5057751215754825</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.265612375112709</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3452</v>
+        <v>3159</v>
       </c>
       <c r="B245" t="n">
-        <v>0.3414478541989683</v>
+        <v>0.3149632842035877</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.2230015089430012</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3443</v>
+        <v>3149</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3328079918609672</v>
+        <v>0.4123891649293945</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.3611279981138174</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3442</v>
+        <v>3140</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3265038895581399</v>
+        <v>0.4038577115350048</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3898316389989347</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3441</v>
+        <v>3138</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3552131303298025</v>
+        <v>0.3207100267593587</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.278367343755786</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3440</v>
+        <v>3136</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3339409753882561</v>
+        <v>0.3987268910656194</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.2212457152583005</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3439</v>
+        <v>3134</v>
       </c>
       <c r="B250" t="n">
-        <v>0.3057624663026027</v>
+        <v>0.2337670683480784</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1696664250301023</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3438</v>
+        <v>3132</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3387643659530741</v>
+        <v>0.2733560142695451</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.2734017865442827</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3436</v>
+        <v>3131</v>
       </c>
       <c r="B252" t="n">
-        <v>0.355354283273543</v>
+        <v>0.3565092104282934</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.2776654826435487</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3407</v>
+        <v>3130</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3458339030396598</v>
+        <v>0.3326552419713334</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.2244208537778615</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3406</v>
+        <v>3122</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3281717601101556</v>
+        <v>0.353022052121416</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.3548111615938346</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3405</v>
+        <v>3118</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3524785611495324</v>
+        <v>0.3699288260850898</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.3641910674581977</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3403</v>
+        <v>3116</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3669082511470456</v>
+        <v>0.238428701964975</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.2260781058081973</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3399</v>
+        <v>3115</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3441006549985927</v>
+        <v>0.3529709031739732</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.3000120688323129</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3396</v>
+        <v>3113</v>
       </c>
       <c r="B258" t="n">
-        <v>0.4131268543864245</v>
+        <v>0.370355794846281</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.2485190100890048</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3393</v>
+        <v>3111</v>
       </c>
       <c r="B259" t="n">
-        <v>0.5083504672400119</v>
+        <v>0.2267989110133316</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.210869796552266</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3344</v>
+        <v>3098</v>
       </c>
       <c r="B260" t="n">
-        <v>0.6115287137633854</v>
+        <v>0.2504256145266407</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.2088494207540176</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3317</v>
+        <v>3008</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3501073511330892</v>
+        <v>0.3532285851532302</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.3117226516045911</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3298</v>
+        <v>2965</v>
       </c>
       <c r="B262" t="n">
-        <v>0.3878017589165381</v>
+        <v>0.3027469611381549</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.2423767381897209</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3297</v>
+        <v>2964</v>
       </c>
       <c r="B263" t="n">
-        <v>0.3980209022985716</v>
+        <v>0.3563145314068659</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.3140825278109567</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3295</v>
+        <v>2963</v>
       </c>
       <c r="B264" t="n">
-        <v>0.3557345779438</v>
+        <v>0.373888727439098</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.3188924002128577</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3287</v>
+        <v>2956</v>
       </c>
       <c r="B265" t="n">
-        <v>0.3868474393874123</v>
+        <v>0.3884609186867046</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.3620540507164361</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>3285</v>
+        <v>2953</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3312170746382176</v>
+        <v>0.3699592336408864</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.3004700830522338</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3280</v>
+        <v>2952</v>
       </c>
       <c r="B267" t="n">
-        <v>0.4230830153403909</v>
+        <v>0.3279554144435849</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.2528736382700009</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3264</v>
+        <v>2951</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3424377402585234</v>
+        <v>0.3310822347368307</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.3080971905361385</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3250</v>
+        <v>2917</v>
       </c>
       <c r="B269" t="n">
-        <v>0.3121011034293925</v>
+        <v>0.3873747814554409</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.1887069240279701</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3236</v>
+        <v>2878</v>
       </c>
       <c r="B270" t="n">
-        <v>0.2935442940160697</v>
+        <v>0.3967253372815885</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.3654025304413625</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3181</v>
+        <v>2876</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3399535315475577</v>
+        <v>0.4044500316770427</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.3922272165403129</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3179</v>
+        <v>2872</v>
       </c>
       <c r="B272" t="n">
-        <v>0.3638404543780996</v>
+        <v>0.3909266812095994</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.3187029907540109</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3178</v>
+        <v>2866</v>
       </c>
       <c r="B273" t="n">
-        <v>0.368822833499494</v>
+        <v>0.3460176680475056</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.3364123740554912</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3176</v>
+        <v>2857</v>
       </c>
       <c r="B274" t="n">
-        <v>0.3787533458271733</v>
+        <v>0.4475709963150276</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.1388485981391966</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3169</v>
+        <v>2850</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3721373981367673</v>
+        <v>0.3630083333445704</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.3096013679123529</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3168</v>
+        <v>2848</v>
       </c>
       <c r="B276" t="n">
-        <v>0.2105081754966643</v>
+        <v>0.3258258648144919</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.2501132335610434</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3163</v>
+        <v>2847</v>
       </c>
       <c r="B277" t="n">
-        <v>0.2428518435471368</v>
+        <v>0.3641678219096857</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.2401849085287906</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3162</v>
+        <v>2843</v>
       </c>
       <c r="B278" t="n">
-        <v>0.2517728649640325</v>
+        <v>0.315431627448131</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.181069154660438</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3161</v>
+        <v>2840</v>
       </c>
       <c r="B279" t="n">
-        <v>0.5793126538338593</v>
+        <v>0.354174154956321</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.3505470627429509</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3160</v>
+        <v>2838</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3649390407509085</v>
+        <v>0.3596997537219249</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.2030113533889872</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3159</v>
+        <v>2837</v>
       </c>
       <c r="B281" t="n">
-        <v>0.314965013765989</v>
+        <v>0.3585751016228012</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.3094121063756335</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3149</v>
+        <v>2836</v>
       </c>
       <c r="B282" t="n">
-        <v>0.4123830510854599</v>
+        <v>0.3268380860785678</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1354847668931348</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3148</v>
+        <v>2835</v>
       </c>
       <c r="B283" t="n">
-        <v>0.330202132258204</v>
+        <v>0.3324010336876246</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.2583993282222347</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3140</v>
+        <v>2832</v>
       </c>
       <c r="B284" t="n">
-        <v>0.4038574214572562</v>
+        <v>0.3196661778027078</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.2667222947772339</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3138</v>
+        <v>2830</v>
       </c>
       <c r="B285" t="n">
-        <v>0.3206657347140217</v>
+        <v>0.3157632957014349</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.3234204329679387</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3136</v>
+        <v>2828</v>
       </c>
       <c r="B286" t="n">
-        <v>0.3987253194086988</v>
+        <v>0.3817940313432857</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.377107571293993</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3134</v>
+        <v>2824</v>
       </c>
       <c r="B287" t="n">
-        <v>0.2337670683480784</v>
+        <v>0.7636668320117732</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7329336114401461</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3132</v>
+        <v>2823</v>
       </c>
       <c r="B288" t="n">
-        <v>0.273406267030393</v>
+        <v>0.3412306941267513</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.3080375538696439</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3131</v>
+        <v>2817</v>
       </c>
       <c r="B289" t="n">
-        <v>0.3565093098611975</v>
+        <v>0.2991605901356599</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1596755012883806</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3130</v>
+        <v>2790</v>
       </c>
       <c r="B290" t="n">
-        <v>0.3326996614522142</v>
+        <v>0.3165381898939307</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.130102482228309</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3122</v>
+        <v>2732</v>
       </c>
       <c r="B291" t="n">
-        <v>0.353022052121416</v>
+        <v>0.3288664021233523</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.3078252424935823</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3120</v>
+        <v>2727</v>
       </c>
       <c r="B292" t="n">
-        <v>0.30304260836151</v>
+        <v>0.3770205766374569</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.3725236102988825</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>3118</v>
+        <v>2723</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3699288260850898</v>
+        <v>0.3051889436453589</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.2460582733407669</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3116</v>
+        <v>2721</v>
       </c>
       <c r="B294" t="n">
-        <v>0.238428701964975</v>
+        <v>0.4070062098275138</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.3314519011777733</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3115</v>
+        <v>2720</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3529701875547946</v>
+        <v>0.3430241834899089</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.2709115686600924</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3113</v>
+        <v>2718</v>
       </c>
       <c r="B296" t="n">
-        <v>0.3703511255843776</v>
+        <v>0.3627380722896557</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.2857360810975123</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>3112</v>
+        <v>2716</v>
       </c>
       <c r="B297" t="n">
-        <v>0.2495246868800121</v>
+        <v>0.473456640260694</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.2638789200504293</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>3111</v>
+        <v>2713</v>
       </c>
       <c r="B298" t="n">
-        <v>0.2267989110133316</v>
+        <v>0.3522051601855565</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.2653158133010987</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3110</v>
+        <v>2712</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2240820158818194</v>
+        <v>0.1725457474632852</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.08169656879446907</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3098</v>
+        <v>2709</v>
       </c>
       <c r="B300" t="n">
-        <v>0.2504256145266407</v>
+        <v>0.3299345381153589</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.2640676392192248</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3008</v>
+        <v>2706</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3532290371125101</v>
+        <v>0.3290373541583857</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.2907698425347742</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3006</v>
+        <v>2642</v>
       </c>
       <c r="B302" t="n">
-        <v>0.2031324072132195</v>
+        <v>0.3439305788961358</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.3291403352677484</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2965</v>
+        <v>2640</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3027575496677645</v>
+        <v>0.3726784843345187</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.3187348025566025</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2964</v>
+        <v>2632</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3563326013695077</v>
+        <v>0.219357210324668</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.05082310384570658</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2963</v>
+        <v>2629</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3738858745242133</v>
+        <v>0.3248242967177833</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.2945807918255275</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2956</v>
+        <v>2628</v>
       </c>
       <c r="B306" t="n">
-        <v>0.3773492456236843</v>
+        <v>0.2529900741104849</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.06776940123294055</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2953</v>
+        <v>2625</v>
       </c>
       <c r="B307" t="n">
-        <v>0.3699285815710964</v>
+        <v>0.3054113527751648</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.2274249692826739</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2952</v>
+        <v>2594</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3279554144435849</v>
+        <v>0.3261775839515229</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.2504074773077576</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2951</v>
+        <v>2554</v>
       </c>
       <c r="B309" t="n">
-        <v>0.331059196327082</v>
+        <v>0.3532581118853121</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.3329652085382553</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2917</v>
+        <v>2549</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2800418317260824</v>
+        <v>0.3224095135099818</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.2707200986516196</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2878</v>
+        <v>2539</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3967253372815885</v>
+        <v>0.3197781151214414</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.2459525177205141</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2876</v>
+        <v>2529</v>
       </c>
       <c r="B312" t="n">
-        <v>0.4044500316770452</v>
+        <v>0.7689929160806006</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.5910759583733314</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2872</v>
+        <v>2527</v>
       </c>
       <c r="B313" t="n">
-        <v>0.3908984413872787</v>
+        <v>0.5659963872044694</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.01350853369861675</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2866</v>
+        <v>2526</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3460176680475056</v>
+        <v>0.4031579203532227</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.01926158251390638</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2857</v>
+        <v>2517</v>
       </c>
       <c r="B315" t="n">
-        <v>0.3334245497823904</v>
+        <v>0.3386647538167064</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.2280021999661814</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2850</v>
+        <v>2516</v>
       </c>
       <c r="B316" t="n">
-        <v>0.3630080419462973</v>
+        <v>0.3343594927155609</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.3131483915880911</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2848</v>
+        <v>2514</v>
       </c>
       <c r="B317" t="n">
-        <v>0.325796477021392</v>
+        <v>0.3522069473160033</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.273480651619837</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2847</v>
+        <v>2513</v>
       </c>
       <c r="B318" t="n">
-        <v>0.2549841510529307</v>
+        <v>0.3372214475222121</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.2181896684503822</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2843</v>
+        <v>2512</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3154197928837394</v>
+        <v>0.2408484418928055</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.2411291367012011</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2840</v>
+        <v>2511</v>
       </c>
       <c r="B320" t="n">
-        <v>0.354174154956321</v>
+        <v>0.3736976558805251</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.3344636521255832</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2838</v>
+        <v>2500</v>
       </c>
       <c r="B321" t="n">
-        <v>0.3122104222776543</v>
+        <v>0.2994164889074996</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.2466414998871224</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2837</v>
+        <v>2499</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3585751016228012</v>
+        <v>0.2550368548406048</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.2527460144410222</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2836</v>
+        <v>2494</v>
       </c>
       <c r="B323" t="n">
-        <v>0.3268380852653081</v>
+        <v>0.2463369310122344</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.2378514707120013</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2835</v>
+        <v>2493</v>
       </c>
       <c r="B324" t="n">
-        <v>0.3324012370888977</v>
+        <v>0.6751140841752585</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.2235124340516889</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2832</v>
+        <v>2491</v>
       </c>
       <c r="B325" t="n">
-        <v>0.3196661778027078</v>
+        <v>0.3408919780665971</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.2097372008792132</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2830</v>
+        <v>2480</v>
       </c>
       <c r="B326" t="n">
-        <v>0.315840930685006</v>
+        <v>0.3805689962118792</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.2113542786387435</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2828</v>
+        <v>2454</v>
       </c>
       <c r="B327" t="n">
-        <v>0.3817940313432857</v>
+        <v>0.3512154405200235</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.3117444755065004</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2823</v>
+        <v>2451</v>
       </c>
       <c r="B328" t="n">
-        <v>0.3412306941267513</v>
+        <v>0.3446445035021009</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.3262978322882637</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2817</v>
+        <v>2450</v>
       </c>
       <c r="B329" t="n">
-        <v>0.2991607398935424</v>
+        <v>0.3137290137570259</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.2209800508569599</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2790</v>
+        <v>2446</v>
       </c>
       <c r="B330" t="n">
-        <v>0.3165350259851199</v>
+        <v>0.5044709580771826</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1686916751133541</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2732</v>
+        <v>2444</v>
       </c>
       <c r="B331" t="n">
-        <v>0.3288620451429077</v>
+        <v>0.3279637209211663</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.300811980257298</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2727</v>
+        <v>2442</v>
       </c>
       <c r="B332" t="n">
-        <v>0.3770205766374569</v>
+        <v>0.3271128361688151</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.2948905024802467</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2723</v>
+        <v>2434</v>
       </c>
       <c r="B333" t="n">
-        <v>0.3051917309539338</v>
+        <v>0.2728554776528795</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1869415624010479</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2721</v>
+        <v>2411</v>
       </c>
       <c r="B334" t="n">
-        <v>0.40700595052042</v>
+        <v>0.299972258269126</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.2393870064181164</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2720</v>
+        <v>2408</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3430232303212524</v>
+        <v>0.3559838920603287</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.2757057262839444</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2718</v>
+        <v>2406</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3627364431144667</v>
+        <v>0.2870036570159216</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.2249482384593715</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2716</v>
+        <v>2404</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3200448049099856</v>
+        <v>0.2993674619478446</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.2469227863229592</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2713</v>
+        <v>2403</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3522051754979143</v>
+        <v>0.3119145406743687</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.1445818069366624</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2712</v>
+        <v>2401</v>
       </c>
       <c r="B339" t="n">
-        <v>0.1725457474632852</v>
+        <v>0.4707186803579978</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.3511846402040139</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2709</v>
+        <v>2400</v>
       </c>
       <c r="B340" t="n">
-        <v>0.3299308657805234</v>
+        <v>0.2180365980846088</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.2180157422091275</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2706</v>
+        <v>2390</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3290362616119551</v>
+        <v>0.3381504347273045</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.3288329075371517</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2642</v>
+        <v>2385</v>
       </c>
       <c r="B342" t="n">
-        <v>0.3439305788961358</v>
+        <v>0.2980063946534813</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.1809178009387102</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2640</v>
+        <v>2384</v>
       </c>
       <c r="B343" t="n">
-        <v>0.3726767020140241</v>
+        <v>0.3815890598896368</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.2923869800797091</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2632</v>
+        <v>2383</v>
       </c>
       <c r="B344" t="n">
-        <v>0.219357210324668</v>
+        <v>0.2350961464522442</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.2273790329337102</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2629</v>
+        <v>2382</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3248260574284403</v>
+        <v>0.235147671666042</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.2548031361380765</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2628</v>
+        <v>2380</v>
       </c>
       <c r="B346" t="n">
-        <v>0.2529900741104845</v>
+        <v>0.6138554599152176</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.224902331129927</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2625</v>
+        <v>2379</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3054133435301179</v>
+        <v>0.2302550872747093</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2278426349212347</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2594</v>
+        <v>2378</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3262814998663602</v>
+        <v>0.3256515523199427</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.2479915795547594</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2554</v>
+        <v>2367</v>
       </c>
       <c r="B349" t="n">
-        <v>0.3532581118853121</v>
+        <v>0.2858797014139497</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.2180780575686391</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2549</v>
+        <v>2364</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3224099125453019</v>
+        <v>0.330898916753211</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.2842104158552071</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2539</v>
+        <v>2341</v>
       </c>
       <c r="B351" t="n">
-        <v>0.2927030832944683</v>
+        <v>0.3749975617766156</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.2790233980749522</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2535</v>
+        <v>2336</v>
       </c>
       <c r="B352" t="n">
-        <v>0.3408669455272132</v>
+        <v>0.3709637647428617</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.2976147867512338</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2527</v>
+        <v>2330</v>
       </c>
       <c r="B353" t="n">
-        <v>0.5656933221467585</v>
+        <v>0.3420543895780894</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.28436325577971</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2526</v>
+        <v>2326</v>
       </c>
       <c r="B354" t="n">
-        <v>0.4034644812239416</v>
+        <v>0.3744917974970767</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.2781749563394387</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2517</v>
+        <v>2324</v>
       </c>
       <c r="B355" t="n">
-        <v>0.3386647538167064</v>
+        <v>0.3392803369055529</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.2690802125126226</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2516</v>
+        <v>2292</v>
       </c>
       <c r="B356" t="n">
-        <v>0.3343594927155609</v>
+        <v>0.2964275550016078</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.2278507700126154</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2514</v>
+        <v>2291</v>
       </c>
       <c r="B357" t="n">
-        <v>0.3522465221386696</v>
+        <v>0.3070776505165629</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.2655059881020422</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2513</v>
+        <v>2277</v>
       </c>
       <c r="B358" t="n">
-        <v>0.3372284776354056</v>
+        <v>0.3178349342969909</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.3095776726878984</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2512</v>
+        <v>2241</v>
       </c>
       <c r="B359" t="n">
-        <v>0.2408484418928055</v>
+        <v>0.313101708897135</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.2287356132935232</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2511</v>
+        <v>2240</v>
       </c>
       <c r="B360" t="n">
-        <v>0.3736976558805251</v>
+        <v>0.306097251300893</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.2410583658209914</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2504</v>
+        <v>2226</v>
       </c>
       <c r="B361" t="n">
-        <v>0.09474997563079351</v>
+        <v>0.2838943551686577</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.1746411041665454</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2503</v>
+        <v>2187</v>
       </c>
       <c r="B362" t="n">
-        <v>-2.24816205102174e-05</v>
+        <v>0.3351770954271642</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.2206565744092346</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2500</v>
+        <v>2169</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2994440268156836</v>
+        <v>0.328064062811504</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.1702505407049824</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2499</v>
+        <v>2168</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2550368548406048</v>
+        <v>0.3091770510304839</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.3091661577666317</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2496</v>
+        <v>2167</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3348266360143882</v>
+        <v>0.347627775546044</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.3033278260329566</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2494</v>
+        <v>2161</v>
       </c>
       <c r="B366" t="n">
-        <v>0.2463369310122344</v>
+        <v>0.3231888980443702</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.315518810646031</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2491</v>
+        <v>2132</v>
       </c>
       <c r="B367" t="n">
-        <v>0.3408906701386241</v>
+        <v>0.3347226536396054</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.2309959033167053</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2480</v>
+        <v>2123</v>
       </c>
       <c r="B368" t="n">
-        <v>0.380568996901761</v>
+        <v>0.7432749998736252</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5457746316334506</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2454</v>
+        <v>2107</v>
       </c>
       <c r="B369" t="n">
-        <v>0.3512154405200235</v>
+        <v>0.3496956475197469</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1904014051178132</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2451</v>
+        <v>2104</v>
       </c>
       <c r="B370" t="n">
-        <v>0.3446445035021009</v>
+        <v>0.3158765480343974</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.3040133263433074</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2450</v>
+        <v>2103</v>
       </c>
       <c r="B371" t="n">
-        <v>0.3135806451808868</v>
+        <v>0.3233332447986302</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.3189613635006659</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2446</v>
+        <v>2098</v>
       </c>
       <c r="B372" t="n">
-        <v>0.3564265151388288</v>
+        <v>0.3174676462926206</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.2949855216031426</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2444</v>
+        <v>2094</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3279637209211663</v>
+        <v>0.3370980867655845</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.2945068633497383</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2442</v>
+        <v>2080</v>
       </c>
       <c r="B374" t="n">
-        <v>0.3271119130096439</v>
+        <v>0.2865726625541307</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.2641274632085129</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2434</v>
+        <v>2079</v>
       </c>
       <c r="B375" t="n">
-        <v>0.2547513039330639</v>
+        <v>0.4273205098869085</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.2921624274628111</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2411</v>
+        <v>2076</v>
       </c>
       <c r="B376" t="n">
-        <v>0.3000901784618941</v>
+        <v>0.4053479636578277</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.3803536872050299</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2408</v>
+        <v>2070</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3559840628853819</v>
+        <v>0.28116174795909</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.2728620985137092</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2406</v>
+        <v>2053</v>
       </c>
       <c r="B378" t="n">
-        <v>0.2870536399787075</v>
+        <v>0.3107154915405137</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.1982404870829106</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2404</v>
+        <v>2051</v>
       </c>
       <c r="B379" t="n">
-        <v>0.2993630534155405</v>
+        <v>0.251225186868731</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1471371467120255</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2403</v>
+        <v>2050</v>
       </c>
       <c r="B380" t="n">
-        <v>0.311913789509434</v>
+        <v>0.3612761728604567</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.2695896920997625</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2401</v>
+        <v>2049</v>
       </c>
       <c r="B381" t="n">
-        <v>0.4708150166887867</v>
+        <v>0.3545598733299081</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.280369413340391</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2400</v>
+        <v>2048</v>
       </c>
       <c r="B382" t="n">
-        <v>0.2180365980846088</v>
+        <v>0.282195109621891</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.2079164692820296</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2397</v>
+        <v>2047</v>
       </c>
       <c r="B383" t="n">
-        <v>0.2180659220898556</v>
+        <v>0.337733465906951</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1040004359475159</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2390</v>
+        <v>2008</v>
       </c>
       <c r="B384" t="n">
-        <v>0.3378874699983627</v>
+        <v>0.3142887903168084</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.1406236025330329</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2385</v>
+        <v>1961</v>
       </c>
       <c r="B385" t="n">
-        <v>0.2164821800370052</v>
+        <v>0.3178663056991625</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3190189416264291</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2384</v>
+        <v>1927</v>
       </c>
       <c r="B386" t="n">
-        <v>0.3815656159243963</v>
+        <v>0.322581162263857</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.2641091461759091</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2383</v>
+        <v>1918</v>
       </c>
       <c r="B387" t="n">
-        <v>0.2290389566179629</v>
+        <v>0.3069268197533201</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.1663411732173533</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2382</v>
+        <v>1915</v>
       </c>
       <c r="B388" t="n">
-        <v>0.235147671666042</v>
+        <v>0.3600826680116974</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1509526584803015</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2380</v>
+        <v>1912</v>
       </c>
       <c r="B389" t="n">
-        <v>0.6138554599152176</v>
+        <v>0.3318534894313961</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.2253233348655234</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2379</v>
+        <v>1904</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2302550872747093</v>
+        <v>0.3007932298518863</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.2361359029389288</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2378</v>
+        <v>1893</v>
       </c>
       <c r="B391" t="n">
-        <v>0.3256277539021526</v>
+        <v>0.3307493876145358</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.2975347112528341</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2367</v>
+        <v>1891</v>
       </c>
       <c r="B392" t="n">
-        <v>0.2858713443004057</v>
+        <v>0.3631297089203908</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.1657178678653067</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2364</v>
+        <v>1888</v>
       </c>
       <c r="B393" t="n">
-        <v>0.3308988608024687</v>
+        <v>0.3994249961162665</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.2194832624781325</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2341</v>
+        <v>1866</v>
       </c>
       <c r="B394" t="n">
-        <v>0.3750060129545738</v>
+        <v>0.7965510610709644</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6920563218683874</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2336</v>
+        <v>1843</v>
       </c>
       <c r="B395" t="n">
-        <v>0.3709637647428617</v>
+        <v>0.2722101846374994</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.1587957903690891</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2330</v>
+        <v>1832</v>
       </c>
       <c r="B396" t="n">
-        <v>0.3420543032325834</v>
+        <v>0.3646157407083429</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.3454479645019153</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2326</v>
+        <v>1831</v>
       </c>
       <c r="B397" t="n">
-        <v>0.3744687337193159</v>
+        <v>0.2927633078442103</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.2730033594798043</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2324</v>
+        <v>1830</v>
       </c>
       <c r="B398" t="n">
-        <v>0.3392818930590816</v>
+        <v>0.4170397495577874</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.2461342452821723</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2292</v>
+        <v>1825</v>
       </c>
       <c r="B399" t="n">
-        <v>0.2964275550016078</v>
+        <v>0.3955860925262275</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.3253216007527494</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2291</v>
+        <v>1769</v>
       </c>
       <c r="B400" t="n">
-        <v>0.3070776505165629</v>
+        <v>0.3107370422277804</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.2893516667268864</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2277</v>
+        <v>1745</v>
       </c>
       <c r="B401" t="n">
-        <v>0.3178275494144771</v>
+        <v>0.6806757475835081</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.3376682915577664</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2241</v>
+        <v>1743</v>
       </c>
       <c r="B402" t="n">
-        <v>0.3130726373961531</v>
+        <v>0.3601357877628241</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.2900832004565516</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2240</v>
+        <v>1740</v>
       </c>
       <c r="B403" t="n">
-        <v>0.3060976734255341</v>
+        <v>0.7810332875240983</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.09458679229922461</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2226</v>
+        <v>1733</v>
       </c>
       <c r="B404" t="n">
-        <v>0.2838942018565911</v>
+        <v>0.383950689714256</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.2485334688436694</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2187</v>
+        <v>1732</v>
       </c>
       <c r="B405" t="n">
-        <v>0.3351796607100348</v>
+        <v>0.6972034678053799</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.3700864821485997</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2169</v>
+        <v>1731</v>
       </c>
       <c r="B406" t="n">
-        <v>0.328064062811503</v>
+        <v>0.3815027184277524</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.1546960158883989</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2168</v>
+        <v>1726</v>
       </c>
       <c r="B407" t="n">
-        <v>0.3091770510304839</v>
+        <v>0.7090209910800074</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.08049842302033651</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2167</v>
+        <v>1723</v>
       </c>
       <c r="B408" t="n">
-        <v>0.3475216657930978</v>
+        <v>0.321878680917422</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.3132827083930875</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2161</v>
+        <v>1720</v>
       </c>
       <c r="B409" t="n">
-        <v>0.3231888980443702</v>
+        <v>0.4060066945966669</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1524551273236871</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2132</v>
+        <v>1710</v>
       </c>
       <c r="B410" t="n">
-        <v>0.2746657683264845</v>
+        <v>0.3465478092695723</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.3058669821032527</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2107</v>
+        <v>1702</v>
       </c>
       <c r="B411" t="n">
-        <v>0.3496953071117069</v>
+        <v>0.3411214992109223</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.3189598816681731</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2104</v>
+        <v>1695</v>
       </c>
       <c r="B412" t="n">
-        <v>0.3158825676143707</v>
+        <v>0.4040017580040652</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.3638001732550173</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2103</v>
+        <v>1682</v>
       </c>
       <c r="B413" t="n">
-        <v>0.3233332447986302</v>
+        <v>0.326575676376105</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.1401944645388563</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2098</v>
+        <v>1642</v>
       </c>
       <c r="B414" t="n">
-        <v>0.3175057646924582</v>
+        <v>0.3492231625578366</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.2082423859383324</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2094</v>
+        <v>1626</v>
       </c>
       <c r="B415" t="n">
-        <v>0.3370974074611651</v>
+        <v>0.3039246925681476</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.3066127787944615</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2080</v>
+        <v>1619</v>
       </c>
       <c r="B416" t="n">
-        <v>0.2865726625541307</v>
+        <v>0.3641290957438147</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.345379274915872</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2079</v>
+        <v>1606</v>
       </c>
       <c r="B417" t="n">
-        <v>0.4273361770859254</v>
+        <v>0.3403143409463609</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.2096430239970554</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2076</v>
+        <v>1599</v>
       </c>
       <c r="B418" t="n">
-        <v>0.4054265651430491</v>
+        <v>0.3107415285840393</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.1754775134853777</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2070</v>
+        <v>1589</v>
       </c>
       <c r="B419" t="n">
-        <v>0.28116174795909</v>
+        <v>0.3743566884103717</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.1623403541514662</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2053</v>
+        <v>1588</v>
       </c>
       <c r="B420" t="n">
-        <v>0.3107162263985859</v>
+        <v>0.3423243838342502</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.2942498378694529</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2051</v>
+        <v>1573</v>
       </c>
       <c r="B421" t="n">
-        <v>0.2512232039679984</v>
+        <v>0.3713590604843447</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.333070029767085</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2050</v>
+        <v>1572</v>
       </c>
       <c r="B422" t="n">
-        <v>0.3612449925766644</v>
+        <v>0.4365716621985434</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.3710306202001566</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2049</v>
+        <v>1571</v>
       </c>
       <c r="B423" t="n">
-        <v>0.3545626863480366</v>
+        <v>0.3301697519661512</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.3149736564021857</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2048</v>
+        <v>1570</v>
       </c>
       <c r="B424" t="n">
-        <v>0.2821711500547219</v>
+        <v>0.3319177387338578</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.2096007671379043</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2047</v>
+        <v>1559</v>
       </c>
       <c r="B425" t="n">
-        <v>0.2652802724661932</v>
+        <v>0.4390453394887912</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.2583896877089017</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2008</v>
+        <v>1556</v>
       </c>
       <c r="B426" t="n">
-        <v>0.3142859737630451</v>
+        <v>0.6177125227042533</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.2810706488116166</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1961</v>
+        <v>1554</v>
       </c>
       <c r="B427" t="n">
-        <v>0.3178685626303148</v>
+        <v>0.3222103563898541</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.237747599382432</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1927</v>
+        <v>1553</v>
       </c>
       <c r="B428" t="n">
-        <v>0.3084430769105047</v>
+        <v>0.3142669905583316</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.1956737698218827</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1918</v>
+        <v>1552</v>
       </c>
       <c r="B429" t="n">
-        <v>0.3069268197533199</v>
+        <v>0.3274226009779145</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.2227491193606462</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>1915</v>
+        <v>1507</v>
       </c>
       <c r="B430" t="n">
-        <v>0.3600826680116974</v>
+        <v>0.3499943052491888</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2405134682708652</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1912</v>
+        <v>1496</v>
       </c>
       <c r="B431" t="n">
-        <v>0.3318534894313961</v>
+        <v>0.2951093720085617</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.2165614046746487</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1904</v>
+        <v>1464</v>
       </c>
       <c r="B432" t="n">
-        <v>0.3007932298518863</v>
+        <v>0.3490773337848976</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.1993730755009059</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1893</v>
+        <v>1458</v>
       </c>
       <c r="B433" t="n">
-        <v>0.3307493876145358</v>
+        <v>0.2489551360873538</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.2141379799941944</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1891</v>
+        <v>1450</v>
       </c>
       <c r="B434" t="n">
-        <v>0.3631055589519822</v>
+        <v>0.6419056176050953</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.5736921044142025</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1888</v>
+        <v>1449</v>
       </c>
       <c r="B435" t="n">
-        <v>0.3135340179449346</v>
+        <v>0.5149958978458226</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.3977767953588899</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1843</v>
+        <v>1448</v>
       </c>
       <c r="B436" t="n">
-        <v>0.2567999415891042</v>
+        <v>0.3582707737692033</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.1941980865187104</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1832</v>
+        <v>1443</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3646157407083429</v>
+        <v>0.3452933576039413</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.3035308705672883</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1831</v>
+        <v>1439</v>
       </c>
       <c r="B438" t="n">
-        <v>0.29276359968291</v>
+        <v>0.2563852840419843</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.2416226614760275</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1830</v>
+        <v>1417</v>
       </c>
       <c r="B439" t="n">
-        <v>0.2851560087963739</v>
+        <v>0.3508068442684321</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.2980507609056474</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1825</v>
+        <v>1416</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3955860925262275</v>
+        <v>0.3115793179517732</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.1641386968257519</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1769</v>
+        <v>1409</v>
       </c>
       <c r="B441" t="n">
-        <v>0.3107370422277804</v>
+        <v>0.5054139433521097</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.4159248560738983</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1743</v>
+        <v>1407</v>
       </c>
       <c r="B442" t="n">
-        <v>0.3601357877628241</v>
+        <v>0.3601966853353047</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.0522527822718304</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1733</v>
+        <v>1404</v>
       </c>
       <c r="B443" t="n">
-        <v>0.3839508676613551</v>
+        <v>0.3709866171283042</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.2853325403477136</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1731</v>
+        <v>1403</v>
       </c>
       <c r="B444" t="n">
-        <v>0.3814505516323673</v>
+        <v>0.3469900006255557</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.3051218784188844</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1723</v>
+        <v>1402</v>
       </c>
       <c r="B445" t="n">
-        <v>0.321878680917422</v>
+        <v>0.3612689678317936</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.3256622616244154</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1720</v>
+        <v>1400</v>
       </c>
       <c r="B446" t="n">
-        <v>0.3650571506154863</v>
+        <v>0.3228326439117915</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.2162111337643925</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1710</v>
+        <v>1396</v>
       </c>
       <c r="B447" t="n">
-        <v>0.3465478092695723</v>
+        <v>0.341644883348028</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.3148985974682199</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1702</v>
+        <v>1394</v>
       </c>
       <c r="B448" t="n">
-        <v>0.3411213777950812</v>
+        <v>0.3287687845200264</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.2898443153336235</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1695</v>
+        <v>1393</v>
       </c>
       <c r="B449" t="n">
-        <v>0.4038823461700978</v>
+        <v>0.3149720260406755</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.2669390303729771</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1682</v>
+        <v>1391</v>
       </c>
       <c r="B450" t="n">
-        <v>0.3265661531731368</v>
+        <v>0.2964935344249091</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.3104278343647754</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1642</v>
+        <v>1385</v>
       </c>
       <c r="B451" t="n">
-        <v>0.3486745610336052</v>
+        <v>0.3110589471023736</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.2543079140032161</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1626</v>
+        <v>1384</v>
       </c>
       <c r="B452" t="n">
-        <v>0.3039246925681476</v>
+        <v>0.3487504169307948</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.3379763644356554</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1619</v>
+        <v>1383</v>
       </c>
       <c r="B453" t="n">
-        <v>0.3641290957438147</v>
+        <v>0.3084205936949976</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.2019976229768646</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1613</v>
+        <v>1382</v>
       </c>
       <c r="B454" t="n">
-        <v>0.07487272896428419</v>
+        <v>0.3205390306290449</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.2929773832060025</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1606</v>
+        <v>1381</v>
       </c>
       <c r="B455" t="n">
-        <v>0.3381898666772962</v>
+        <v>0.3358660258496791</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.2558666255892624</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1599</v>
+        <v>1379</v>
       </c>
       <c r="B456" t="n">
-        <v>0.3107402533139503</v>
+        <v>0.3054176752386222</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.2910426298005275</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1589</v>
+        <v>1378</v>
       </c>
       <c r="B457" t="n">
-        <v>0.3742944169215326</v>
+        <v>0.3669039809950257</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.2547721531358377</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1588</v>
+        <v>1374</v>
       </c>
       <c r="B458" t="n">
-        <v>0.3423243838342502</v>
+        <v>0.3549651143153393</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.2536078613260694</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1573</v>
+        <v>1372</v>
       </c>
       <c r="B459" t="n">
-        <v>0.3713600643712813</v>
+        <v>0.2737954133153212</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.1775591328732753</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1572</v>
+        <v>1364</v>
       </c>
       <c r="B460" t="n">
-        <v>0.4365716621985434</v>
+        <v>0.3360032753861902</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.2636967222205018</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1571</v>
+        <v>1363</v>
       </c>
       <c r="B461" t="n">
-        <v>0.3301720148863247</v>
+        <v>0.3371884461058679</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.3491325810182773</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1570</v>
+        <v>1361</v>
       </c>
       <c r="B462" t="n">
-        <v>0.3319241604658278</v>
+        <v>0.2673797929572621</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.1577277129712772</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1564</v>
+        <v>1360</v>
       </c>
       <c r="B463" t="n">
-        <v>0.2747193101960075</v>
+        <v>0.2422592117798223</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.08702217873952442</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1559</v>
+        <v>1357</v>
       </c>
       <c r="B464" t="n">
-        <v>0.4390453394887912</v>
+        <v>0.2880947840554137</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.1986652995161604</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1557</v>
+        <v>1356</v>
       </c>
       <c r="B465" t="n">
-        <v>0.2039045768119444</v>
+        <v>0.3256703050178186</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.2373178849999272</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1556</v>
+        <v>1355</v>
       </c>
       <c r="B466" t="n">
-        <v>0.6177125227042533</v>
+        <v>0.3800789488258633</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.3274591267294111</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1555</v>
+        <v>1353</v>
       </c>
       <c r="B467" t="n">
-        <v>0.2068553864370258</v>
+        <v>0.374441628090513</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.3175269830813268</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1554</v>
+        <v>1336</v>
       </c>
       <c r="B468" t="n">
-        <v>0.3222208238655966</v>
+        <v>0.3708681119738687</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.2203355149066649</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1553</v>
+        <v>1295</v>
       </c>
       <c r="B469" t="n">
-        <v>0.3120203460102647</v>
+        <v>0.3473749577270973</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.2704464475375331</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1552</v>
+        <v>1294</v>
       </c>
       <c r="B470" t="n">
-        <v>0.3274137824809211</v>
+        <v>0.3660771212512015</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.2523993900534102</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1507</v>
+        <v>1271</v>
       </c>
       <c r="B471" t="n">
-        <v>0.3500087769611734</v>
+        <v>0.2935578018046881</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.2628701810415786</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1496</v>
+        <v>1252</v>
       </c>
       <c r="B472" t="n">
-        <v>0.2943988102158227</v>
+        <v>0.3377191001695341</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.2852601570421173</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1464</v>
+        <v>1250</v>
       </c>
       <c r="B473" t="n">
-        <v>0.3490761771569064</v>
+        <v>0.3243058961326726</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.2554667193745971</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1458</v>
+        <v>1248</v>
       </c>
       <c r="B474" t="n">
-        <v>0.2489530420668708</v>
+        <v>0.311072648755508</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.2781749067967321</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1449</v>
+        <v>1243</v>
       </c>
       <c r="B475" t="n">
-        <v>0.3598022975736171</v>
+        <v>0.2988347321888756</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.1125062494452665</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1448</v>
+        <v>1242</v>
       </c>
       <c r="B476" t="n">
-        <v>0.356306149182754</v>
+        <v>0.3422582233259418</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.2834655840799444</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1443</v>
+        <v>1241</v>
       </c>
       <c r="B477" t="n">
-        <v>0.3452871225566381</v>
+        <v>0.3753691688675735</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.2273488658183574</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1439</v>
+        <v>1240</v>
       </c>
       <c r="B478" t="n">
-        <v>0.2564069792750163</v>
+        <v>0.3580790041964843</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.300845377697347</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1417</v>
+        <v>1239</v>
       </c>
       <c r="B479" t="n">
-        <v>0.3508015852492476</v>
+        <v>0.5997984676548143</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.2883652768598846</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1416</v>
+        <v>1235</v>
       </c>
       <c r="B480" t="n">
-        <v>0.3115066798152164</v>
+        <v>0.3551950738568626</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.1960225426013315</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1409</v>
+        <v>1233</v>
       </c>
       <c r="B481" t="n">
-        <v>0.5054116343377635</v>
+        <v>0.3447518241373255</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.1782077488451278</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1407</v>
+        <v>1230</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2483898551938452</v>
+        <v>0.3223588882097501</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.13980498372669</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1404</v>
+        <v>1218</v>
       </c>
       <c r="B483" t="n">
-        <v>0.3677842738275404</v>
+        <v>0.353028402315549</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.2729062936596083</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1403</v>
+        <v>1217</v>
       </c>
       <c r="B484" t="n">
-        <v>0.3469900006255557</v>
+        <v>0.2939084742891318</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.1618750588922799</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1402</v>
+        <v>1175</v>
       </c>
       <c r="B485" t="n">
-        <v>0.3612637552616248</v>
+        <v>0.6732310657626568</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.5871681427613595</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1400</v>
+        <v>1167</v>
       </c>
       <c r="B486" t="n">
-        <v>0.3228358748591925</v>
+        <v>0.2843581523713802</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.3000640289147648</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1396</v>
+        <v>1131</v>
       </c>
       <c r="B487" t="n">
-        <v>0.3416543645450753</v>
+        <v>0.2940028861544107</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.165489175685163</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1394</v>
+        <v>1104</v>
       </c>
       <c r="B488" t="n">
-        <v>0.3287699259446772</v>
+        <v>0.3008856952956268</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.1646932727648084</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1393</v>
+        <v>1091</v>
       </c>
       <c r="B489" t="n">
-        <v>0.3149714492636766</v>
+        <v>0.3657934829628993</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.2288828057569641</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1391</v>
+        <v>1082</v>
       </c>
       <c r="B490" t="n">
-        <v>0.2964935344249091</v>
+        <v>0.3120952621388998</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.2368585506937542</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1385</v>
+        <v>1081</v>
       </c>
       <c r="B491" t="n">
-        <v>0.3110602561177619</v>
+        <v>0.2841759387101068</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.3154526307148206</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1384</v>
+        <v>1073</v>
       </c>
       <c r="B492" t="n">
-        <v>0.3487536892986949</v>
+        <v>0.5152557182218875</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.4713997490219856</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1383</v>
+        <v>1048</v>
       </c>
       <c r="B493" t="n">
-        <v>0.3045865035036412</v>
+        <v>0.4324280946002715</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.3508463565595603</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1382</v>
+        <v>1047</v>
       </c>
       <c r="B494" t="n">
-        <v>0.3205390306290452</v>
+        <v>0.2732736929839669</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.1142872447783363</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1381</v>
+        <v>1046</v>
       </c>
       <c r="B495" t="n">
-        <v>0.3358622686375247</v>
+        <v>0.2445281783725689</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.09906901421109676</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1379</v>
+        <v>1043</v>
       </c>
       <c r="B496" t="n">
-        <v>0.3054176752386222</v>
+        <v>0.3298792407700594</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.2854034736262878</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1378</v>
+        <v>1040</v>
       </c>
       <c r="B497" t="n">
-        <v>0.3669099670829395</v>
+        <v>0.2920487971398382</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.166696351410094</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1374</v>
+        <v>1012</v>
       </c>
       <c r="B498" t="n">
-        <v>0.3549702348831534</v>
+        <v>0.3095073333834275</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.1012020575080104</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1372</v>
+        <v>1010</v>
       </c>
       <c r="B499" t="n">
-        <v>0.2495857374993361</v>
+        <v>0.3509146799022471</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.2978415639268328</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1364</v>
+        <v>1008</v>
       </c>
       <c r="B500" t="n">
-        <v>0.3360032753861902</v>
+        <v>0.3810854735883846</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.2835055546898837</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1363</v>
+        <v>1007</v>
       </c>
       <c r="B501" t="n">
-        <v>0.3371444246398396</v>
+        <v>0.7089939964700279</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.08150555819546861</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1361</v>
+        <v>1004</v>
       </c>
       <c r="B502" t="n">
-        <v>0.2673788596547524</v>
+        <v>0.8940730630281735</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.241905956145007</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1360</v>
+        <v>1001</v>
       </c>
       <c r="B503" t="n">
-        <v>0.2422584919919206</v>
+        <v>0.381881031400252</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.2907633974124437</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1357</v>
+        <v>997</v>
       </c>
       <c r="B504" t="n">
-        <v>0.2880923456492257</v>
+        <v>0.3516683873311575</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.1554645183271285</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1356</v>
+        <v>996</v>
       </c>
       <c r="B505" t="n">
-        <v>0.3255580425894721</v>
+        <v>0.2983723374149675</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.2614843751365772</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1355</v>
+        <v>995</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3800789488258633</v>
+        <v>0.3349511083874094</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.1680583587988068</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>1353</v>
+        <v>994</v>
       </c>
       <c r="B507" t="n">
-        <v>0.374441628090513</v>
+        <v>0.3445377233267714</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.2950301248041335</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1336</v>
+        <v>991</v>
       </c>
       <c r="B508" t="n">
-        <v>0.3203611610801673</v>
+        <v>0.3399945083058348</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.3143534919018618</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1305</v>
+        <v>990</v>
       </c>
       <c r="B509" t="n">
-        <v>0.3052858790551071</v>
+        <v>0.323956086608599</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.2872937246343848</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1295</v>
+        <v>988</v>
       </c>
       <c r="B510" t="n">
-        <v>0.3071138842226493</v>
+        <v>0.3742316926379042</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.2238556133889805</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1294</v>
+        <v>983</v>
       </c>
       <c r="B511" t="n">
-        <v>0.3661624631864613</v>
+        <v>0.3706365137337996</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.3573724077145008</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>1271</v>
+        <v>981</v>
       </c>
       <c r="B512" t="n">
-        <v>0.2935461030888964</v>
+        <v>0.351993650504632</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.2736432830978427</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>1252</v>
+        <v>976</v>
       </c>
       <c r="B513" t="n">
-        <v>0.3377061418270257</v>
+        <v>0.2791756706983224</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.2293522697137114</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1250</v>
+        <v>964</v>
       </c>
       <c r="B514" t="n">
-        <v>0.3243058961326726</v>
+        <v>0.2816879940179581</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.1728809320498452</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1248</v>
+        <v>963</v>
       </c>
       <c r="B515" t="n">
-        <v>0.3110485561230868</v>
+        <v>0.29860623799072</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.2926886767325154</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1243</v>
+        <v>898</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2987555096887059</v>
+        <v>0.3409364013295892</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.2484987315750994</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1242</v>
+        <v>897</v>
       </c>
       <c r="B517" t="n">
-        <v>0.3420816001018193</v>
+        <v>0.3690426579646378</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.1775760739925178</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1241</v>
+        <v>892</v>
       </c>
       <c r="B518" t="n">
-        <v>0.3753224813739368</v>
+        <v>0.3376154120599792</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.2092250661260411</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1240</v>
+        <v>891</v>
       </c>
       <c r="B519" t="n">
-        <v>0.35803611525802</v>
+        <v>0.3226973296960479</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.1474044240013184</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1239</v>
+        <v>889</v>
       </c>
       <c r="B520" t="n">
-        <v>0.3542314852762604</v>
+        <v>0.3641479252498773</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.2013120506148536</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1235</v>
+        <v>887</v>
       </c>
       <c r="B521" t="n">
-        <v>0.3552078671325656</v>
+        <v>0.325618637449247</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.3141344714443729</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1233</v>
+        <v>886</v>
       </c>
       <c r="B522" t="n">
-        <v>0.3447518241373259</v>
+        <v>0.3183285126824367</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.2667884244884284</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>1230</v>
+        <v>884</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3223481176416331</v>
+        <v>0.3279692966612942</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.2579953098698153</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1218</v>
+        <v>883</v>
       </c>
       <c r="B524" t="n">
-        <v>0.3528794951059801</v>
+        <v>0.3223494816677547</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.2795060219406901</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1217</v>
+        <v>879</v>
       </c>
       <c r="B525" t="n">
-        <v>0.2939172089394818</v>
+        <v>0.3289769140723148</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.2032302042436729</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>1167</v>
+        <v>876</v>
       </c>
       <c r="B526" t="n">
-        <v>0.2843598097144493</v>
+        <v>0.3061620467279422</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.1151770026057732</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1131</v>
+        <v>874</v>
       </c>
       <c r="B527" t="n">
-        <v>0.2939835173417775</v>
+        <v>0.376026534633627</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.2344958136011575</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>1104</v>
+        <v>867</v>
       </c>
       <c r="B528" t="n">
-        <v>0.3008877049494709</v>
+        <v>0.3341197257274203</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.3119008908997429</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>1091</v>
+        <v>864</v>
       </c>
       <c r="B529" t="n">
-        <v>0.3658120695824805</v>
+        <v>0.2806512942273566</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.1192461234448171</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>1082</v>
+        <v>863</v>
       </c>
       <c r="B530" t="n">
-        <v>0.3120952621388998</v>
+        <v>0.3323780195717205</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.1530045192106054</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>1081</v>
+        <v>862</v>
       </c>
       <c r="B531" t="n">
-        <v>0.2841388868365627</v>
+        <v>0.2508753675528584</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.2989627007280914</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>1048</v>
+        <v>861</v>
       </c>
       <c r="B532" t="n">
-        <v>0.4324149619372036</v>
+        <v>0.33917321020291</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.1966524405395231</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>1047</v>
+        <v>856</v>
       </c>
       <c r="B533" t="n">
-        <v>0.2732737425266073</v>
+        <v>0.3439889855093241</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.3159480943127678</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1046</v>
+        <v>762</v>
       </c>
       <c r="B534" t="n">
-        <v>0.2445253318970057</v>
+        <v>0.4375415699144651</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.1566557213563654</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>1043</v>
+        <v>734</v>
       </c>
       <c r="B535" t="n">
-        <v>0.3298786866789684</v>
+        <v>0.3975967705231472</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.241720550125443</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1040</v>
+        <v>733</v>
       </c>
       <c r="B536" t="n">
-        <v>0.292048797139838</v>
+        <v>0.4817942224984216</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.3242689790773098</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1012</v>
+        <v>728</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3072289004339736</v>
+        <v>0.3540568086159631</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.3367213991446759</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1010</v>
+        <v>727</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3377198363422877</v>
+        <v>0.3720129007161874</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.2291530794604995</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1008</v>
+        <v>715</v>
       </c>
       <c r="B539" t="n">
-        <v>0.3810854886178914</v>
+        <v>0.3789519563168606</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.292354967433743</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>1001</v>
+        <v>710</v>
       </c>
       <c r="B540" t="n">
-        <v>0.3818314953929303</v>
+        <v>0.3872792581051892</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.3227248819172688</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>997</v>
+        <v>709</v>
       </c>
       <c r="B541" t="n">
-        <v>0.3516733434579217</v>
+        <v>0.3705690381854527</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.3263674027151284</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>996</v>
+        <v>708</v>
       </c>
       <c r="B542" t="n">
-        <v>0.2983723374149675</v>
+        <v>0.3613743914771454</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.3446097652407951</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>995</v>
+        <v>703</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3349434213815229</v>
+        <v>0.3704141896271425</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.3759836800720791</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>994</v>
+        <v>700</v>
       </c>
       <c r="B544" t="n">
-        <v>0.3445375104001133</v>
+        <v>0.2860757395942432</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.2150977417492848</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>991</v>
+        <v>699</v>
       </c>
       <c r="B545" t="n">
-        <v>0.3399996504187736</v>
+        <v>0.3665402364863159</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.2749621848085718</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>990</v>
+        <v>689</v>
       </c>
       <c r="B546" t="n">
-        <v>0.323956086608599</v>
+        <v>0.378857860994923</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.2243018644808889</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>988</v>
+        <v>688</v>
       </c>
       <c r="B547" t="n">
-        <v>0.3742316926379042</v>
+        <v>0.3464400895857013</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.2870941621663602</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>983</v>
+        <v>683</v>
       </c>
       <c r="B548" t="n">
-        <v>0.3706365137337996</v>
+        <v>0.3474864101432281</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.2576352679292373</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>981</v>
+        <v>676</v>
       </c>
       <c r="B549" t="n">
-        <v>0.3519755970351164</v>
+        <v>0.4223937575297543</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.3419791469515453</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>976</v>
+        <v>668</v>
       </c>
       <c r="B550" t="n">
-        <v>0.2791287832168083</v>
+        <v>0.3485047059981262</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.2671181718765608</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>964</v>
+        <v>667</v>
       </c>
       <c r="B551" t="n">
-        <v>0.2429838571077417</v>
+        <v>0.3145667977239853</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.2959195655670652</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>963</v>
+        <v>664</v>
       </c>
       <c r="B552" t="n">
-        <v>0.29860623799072</v>
+        <v>0.4918084031628622</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.2326798852079537</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>898</v>
+        <v>663</v>
       </c>
       <c r="B553" t="n">
-        <v>0.3409363876068055</v>
+        <v>0.3957605148690159</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.3127562278641954</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>897</v>
+        <v>647</v>
       </c>
       <c r="B554" t="n">
-        <v>0.3690583960859196</v>
+        <v>0.6738982867406622</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.4070066525693643</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>892</v>
+        <v>646</v>
       </c>
       <c r="B555" t="n">
-        <v>0.3375883779268106</v>
+        <v>0.3143355762701579</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.2755987851806019</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>891</v>
+        <v>645</v>
       </c>
       <c r="B556" t="n">
-        <v>0.3226777688780068</v>
+        <v>0.3370382427044076</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.280249121214506</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>889</v>
+        <v>643</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3641479252498773</v>
+        <v>0.3341224934170904</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.3428404104977979</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>887</v>
+        <v>642</v>
       </c>
       <c r="B558" t="n">
-        <v>0.325618637449247</v>
+        <v>0.2386922647057908</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.1500471350553743</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>886</v>
+        <v>641</v>
       </c>
       <c r="B559" t="n">
-        <v>0.3183285126824367</v>
+        <v>0.3430279355881051</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.3170485591354511</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>884</v>
+        <v>638</v>
       </c>
       <c r="B560" t="n">
-        <v>0.3279426660468235</v>
+        <v>0.3848006825149242</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.2259883387000937</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>883</v>
+        <v>634</v>
       </c>
       <c r="B561" t="n">
-        <v>0.3223592297432889</v>
+        <v>0.3773551783389384</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.3306149754533915</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>879</v>
+        <v>620</v>
       </c>
       <c r="B562" t="n">
-        <v>0.3289422000117816</v>
+        <v>0.2979418388771001</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.2416878381867</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>876</v>
+        <v>619</v>
       </c>
       <c r="B563" t="n">
-        <v>0.3061622048917437</v>
+        <v>0.280148289852836</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.18749266516557</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>874</v>
+        <v>617</v>
       </c>
       <c r="B564" t="n">
-        <v>0.3378065509379854</v>
+        <v>0.3132631959311428</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.2553621180035927</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>867</v>
+        <v>612</v>
       </c>
       <c r="B565" t="n">
-        <v>0.3201950853404743</v>
+        <v>0.4556422862929177</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.282613910380148</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>864</v>
+        <v>610</v>
       </c>
       <c r="B566" t="n">
-        <v>0.2806510652707211</v>
+        <v>0.3039518983373502</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.2562444577010076</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>863</v>
+        <v>609</v>
       </c>
       <c r="B567" t="n">
-        <v>0.3322890205839021</v>
+        <v>0.3145273019792414</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.211126477218655</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>862</v>
+        <v>603</v>
       </c>
       <c r="B568" t="n">
-        <v>0.2433563071908566</v>
+        <v>0.2950934285001632</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.2104525950625856</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>861</v>
+        <v>602</v>
       </c>
       <c r="B569" t="n">
-        <v>0.3391700803602149</v>
+        <v>0.3295356748326769</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.1471382314489737</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>856</v>
+        <v>599</v>
       </c>
       <c r="B570" t="n">
-        <v>0.3439889855093241</v>
+        <v>0.3175011751215472</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.1993294029663737</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>762</v>
+        <v>597</v>
       </c>
       <c r="B571" t="n">
-        <v>0.437565723078728</v>
+        <v>0.2752275331688152</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.2174892265591981</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>734</v>
+        <v>594</v>
       </c>
       <c r="B572" t="n">
-        <v>0.2900470182217564</v>
+        <v>0.3570844043697489</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.2830263660323942</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>733</v>
+        <v>593</v>
       </c>
       <c r="B573" t="n">
-        <v>0.4817942224984216</v>
+        <v>0.3289094265878386</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.3373965020880921</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>728</v>
+        <v>591</v>
       </c>
       <c r="B574" t="n">
-        <v>0.354056714356983</v>
+        <v>0.2171892073560314</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.2008380704745897</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>727</v>
+        <v>589</v>
       </c>
       <c r="B575" t="n">
-        <v>0.3705654694610934</v>
+        <v>0.2699462031689344</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.1809654118166279</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>715</v>
+        <v>568</v>
       </c>
       <c r="B576" t="n">
-        <v>0.3193548167490181</v>
+        <v>0.3086250276186408</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.2468902398986084</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>710</v>
+        <v>564</v>
       </c>
       <c r="B577" t="n">
-        <v>0.3872750824699207</v>
+        <v>0.3628228055020472</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.2765002079874843</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>709</v>
+        <v>563</v>
       </c>
       <c r="B578" t="n">
-        <v>0.3705690381854527</v>
+        <v>0.2517879642130236</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.1517433681959056</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>708</v>
+        <v>562</v>
       </c>
       <c r="B579" t="n">
-        <v>0.3563287821757226</v>
+        <v>0.3024388562365707</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.2541806862645903</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>703</v>
+        <v>548</v>
       </c>
       <c r="B580" t="n">
-        <v>0.3704141896271425</v>
+        <v>0.3446396189736839</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.1462871002864631</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>700</v>
+        <v>546</v>
       </c>
       <c r="B581" t="n">
-        <v>0.2678555178119179</v>
+        <v>0.2733707449722079</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.2493425249495674</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>699</v>
+        <v>544</v>
       </c>
       <c r="B582" t="n">
-        <v>0.3665447721042723</v>
+        <v>0.315926326309818</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.2703215372959157</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>689</v>
+        <v>542</v>
       </c>
       <c r="B583" t="n">
-        <v>0.3177185204969145</v>
+        <v>0.5842935987556082</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.315848316311668</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>688</v>
+        <v>527</v>
       </c>
       <c r="B584" t="n">
-        <v>0.3464400895857013</v>
+        <v>0.2906919764172802</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.1539772405362417</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>683</v>
+        <v>525</v>
       </c>
       <c r="B585" t="n">
-        <v>0.3474982319274272</v>
+        <v>0.3217628863751233</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.1293091803794764</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>676</v>
+        <v>492</v>
       </c>
       <c r="B586" t="n">
-        <v>0.4224616093355023</v>
+        <v>0.3114727890361639</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.2792616188689381</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>668</v>
+        <v>478</v>
       </c>
       <c r="B587" t="n">
-        <v>0.3441722980815625</v>
+        <v>0.7560991157272459</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.1898331581552508</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>667</v>
+        <v>477</v>
       </c>
       <c r="B588" t="n">
-        <v>0.2959865021242581</v>
+        <v>0.8725597432959051</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.1348237535113352</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>664</v>
+        <v>470</v>
       </c>
       <c r="B589" t="n">
-        <v>0.2981931869293242</v>
+        <v>0.3586795933068365</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.2203280816879611</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>663</v>
+        <v>469</v>
       </c>
       <c r="B590" t="n">
-        <v>0.3957955573436505</v>
+        <v>0.3561355208654057</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.3493084650018382</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>646</v>
+        <v>468</v>
       </c>
       <c r="B591" t="n">
-        <v>0.3143350705505306</v>
+        <v>0.2957016968880622</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.2021755585235202</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>645</v>
+        <v>465</v>
       </c>
       <c r="B592" t="n">
-        <v>0.3370373257606192</v>
+        <v>0.2692549426896834</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.1013563676875379</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>643</v>
+        <v>420</v>
       </c>
       <c r="B593" t="n">
-        <v>0.334122525585854</v>
+        <v>0.3139851814235955</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.2566450962422004</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>642</v>
+        <v>408</v>
       </c>
       <c r="B594" t="n">
-        <v>0.2386921665985448</v>
+        <v>0.3375516173563832</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.2852957475752826</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>641</v>
+        <v>404</v>
       </c>
       <c r="B595" t="n">
-        <v>0.3430279355881051</v>
+        <v>0.3702019275447535</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.319266821870105</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>638</v>
+        <v>400</v>
       </c>
       <c r="B596" t="n">
-        <v>0.3850157221133234</v>
+        <v>0.3641578832900317</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.3117723097840813</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>634</v>
+        <v>384</v>
       </c>
       <c r="B597" t="n">
-        <v>0.377354956346202</v>
+        <v>0.3263613036984929</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.2084917672192279</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>620</v>
+        <v>358</v>
       </c>
       <c r="B598" t="n">
-        <v>0.2979407816651257</v>
+        <v>0.3158111453419152</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0.1625438917419693</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>619</v>
+        <v>356</v>
       </c>
       <c r="B599" t="n">
-        <v>0.2801457197305913</v>
+        <v>0.3672970844489278</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0.3017792101544527</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>617</v>
+        <v>350</v>
       </c>
       <c r="B600" t="n">
-        <v>0.3132200750469503</v>
+        <v>0.3588678483245283</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0.2686574329070286</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>612</v>
+        <v>345</v>
       </c>
       <c r="B601" t="n">
-        <v>0.3533603682852726</v>
+        <v>0.3752496647574384</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.2670262644098984</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>610</v>
+        <v>335</v>
       </c>
       <c r="B602" t="n">
-        <v>0.3039291153315715</v>
+        <v>0.3698692473053902</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0.3280155612961319</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>609</v>
+        <v>334</v>
       </c>
       <c r="B603" t="n">
-        <v>0.3145187457731126</v>
+        <v>0.3315256983284648</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.1776107392648378</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>603</v>
+        <v>331</v>
       </c>
       <c r="B604" t="n">
-        <v>0.2761274508851297</v>
+        <v>0.3390417063747114</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0.252988711756248</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>602</v>
+        <v>330</v>
       </c>
       <c r="B605" t="n">
-        <v>0.3295343058302735</v>
+        <v>0.3501957321394374</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0.2574063201664039</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>599</v>
+        <v>315</v>
       </c>
       <c r="B606" t="n">
-        <v>0.3174716779768577</v>
+        <v>0.3521531458976094</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.2653443097696354</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>597</v>
+        <v>310</v>
       </c>
       <c r="B607" t="n">
-        <v>0.2752275331688152</v>
+        <v>0.3535006417604258</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.2972433094176472</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>594</v>
+        <v>302</v>
       </c>
       <c r="B608" t="n">
-        <v>0.3570844043697489</v>
+        <v>0.3339203628239297</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.2749315243238807</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>593</v>
+        <v>298</v>
       </c>
       <c r="B609" t="n">
-        <v>0.3289092328425381</v>
+        <v>0.369423143271118</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.3015116345825405</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>592</v>
+        <v>273</v>
       </c>
       <c r="B610" t="n">
-        <v>0.2149747179626891</v>
+        <v>0.351099058735578</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.3206420449776481</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>591</v>
+        <v>271</v>
       </c>
       <c r="B611" t="n">
-        <v>0.2171892073560314</v>
+        <v>0.3585844700927945</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.2921443955214288</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>589</v>
+        <v>260</v>
       </c>
       <c r="B612" t="n">
-        <v>0.2699332506419296</v>
+        <v>0.3826664149917867</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.2735552655072661</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>568</v>
+        <v>259</v>
       </c>
       <c r="B613" t="n">
-        <v>0.3086238606380923</v>
+        <v>0.3595156873898189</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.2878289861244848</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>564</v>
+        <v>247</v>
       </c>
       <c r="B614" t="n">
-        <v>0.3628409294377882</v>
+        <v>0.2757029860938772</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.1921944013009273</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>563</v>
+        <v>228</v>
       </c>
       <c r="B615" t="n">
-        <v>0.2376142233209489</v>
+        <v>0.3660257862635062</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.3125900262000961</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>562</v>
+        <v>207</v>
       </c>
       <c r="B616" t="n">
-        <v>0.3024622046480672</v>
+        <v>0.3437253786329469</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.2621173608922941</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>548</v>
+        <v>203</v>
       </c>
       <c r="B617" t="n">
-        <v>0.3446395834836978</v>
+        <v>0.3049698691789685</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.17669131633043</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>546</v>
+        <v>202</v>
       </c>
       <c r="B618" t="n">
-        <v>0.2731560242609729</v>
+        <v>0.2862396592184028</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.1663153813184611</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>544</v>
+        <v>201</v>
       </c>
       <c r="B619" t="n">
-        <v>0.3158951322130004</v>
+        <v>0.7975557576652114</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.7852746596521318</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>542</v>
+        <v>173</v>
       </c>
       <c r="B620" t="n">
-        <v>0.2497524266807182</v>
+        <v>0.3463452153152951</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.2636505279069839</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>527</v>
+        <v>170</v>
       </c>
       <c r="B621" t="n">
-        <v>0.2905316115753866</v>
+        <v>0.3425437034996842</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.2124595672383905</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>525</v>
+        <v>169</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3217645930718182</v>
+        <v>0.3092698968357958</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.1656187108001922</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>492</v>
+        <v>168</v>
       </c>
       <c r="B623" t="n">
-        <v>0.3114727890361639</v>
+        <v>0.3105192100112233</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.1166574920559161</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>478</v>
+        <v>165</v>
       </c>
       <c r="B624" t="n">
-        <v>0.2220535752706069</v>
+        <v>0.3275179329535759</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.3124242015318413</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>477</v>
+        <v>160</v>
       </c>
       <c r="B625" t="n">
-        <v>0.4087880486180729</v>
+        <v>0.3460146174016863</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.2426147495949758</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>470</v>
+        <v>147</v>
       </c>
       <c r="B626" t="n">
-        <v>0.3586795933068371</v>
+        <v>0.3425896683892917</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.2732718145451505</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>469</v>
+        <v>141</v>
       </c>
       <c r="B627" t="n">
-        <v>0.3561355208654057</v>
+        <v>0.3430445939854809</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.3002356091312792</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>468</v>
+        <v>136</v>
       </c>
       <c r="B628" t="n">
-        <v>0.2956974420319075</v>
+        <v>0.3238153863680117</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.3272454424526394</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>465</v>
+        <v>130</v>
       </c>
       <c r="B629" t="n">
-        <v>0.2692549426896845</v>
+        <v>0.3738416607201664</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0.3100466402006433</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>420</v>
+        <v>127</v>
       </c>
       <c r="B630" t="n">
-        <v>0.316874121992219</v>
+        <v>0.2868456449618865</v>
+      </c>
+      <c r="C630" t="n">
+        <v>0.1209612268505193</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>408</v>
+        <v>126</v>
       </c>
       <c r="B631" t="n">
-        <v>0.3377966006858023</v>
+        <v>0.3350487123402712</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0.2836624432440314</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>404</v>
+        <v>120</v>
       </c>
       <c r="B632" t="n">
-        <v>0.3702019275447535</v>
+        <v>0.4640530342177379</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0.3040492349904215</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>400</v>
+        <v>118</v>
       </c>
       <c r="B633" t="n">
-        <v>0.3641515093567903</v>
+        <v>0.3210773470683017</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.2593042077735589</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>384</v>
+        <v>113</v>
       </c>
       <c r="B634" t="n">
-        <v>0.3263457436670458</v>
+        <v>0.3271462536060207</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.3275541465655367</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="B635" t="n">
-        <v>0.3159330244512251</v>
+        <v>0.3121685388495061</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.159701414628148</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>356</v>
+        <v>87</v>
       </c>
       <c r="B636" t="n">
-        <v>0.367297436815018</v>
+        <v>0.2650977312159671</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.07588265494694052</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="B637" t="n">
-        <v>0.3596919334578222</v>
+        <v>0.3360939700817142</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.2347023919770075</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="B638" t="n">
-        <v>0.3753042954602711</v>
+        <v>0.2925335303489338</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.3801761658432665</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>335</v>
+        <v>56</v>
       </c>
       <c r="B639" t="n">
-        <v>0.3530259299487264</v>
+        <v>0.329669521402392</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.3215999252610792</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="B640" t="n">
-        <v>0.3322372882753658</v>
+        <v>0.3505065905567147</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.1942067725034134</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>331</v>
+        <v>50</v>
       </c>
       <c r="B641" t="n">
-        <v>0.3390355373400809</v>
+        <v>0.3357286692641849</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.283753125496538</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="B642" t="n">
-        <v>0.3502015867543166</v>
+        <v>0.344529908891315</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.339462689805778</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="B643" t="n">
-        <v>0.3521531458976094</v>
+        <v>0.350836402349693</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.3468722393292948</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="B644" t="n">
-        <v>0.3534859012144926</v>
+        <v>0.3678323246945064</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.34490907495663</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>302</v>
+        <v>8</v>
       </c>
       <c r="B645" t="n">
-        <v>0.3339203628239297</v>
+        <v>0.3346907633605368</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.295926750042002</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>298</v>
+        <v>3</v>
       </c>
       <c r="B646" t="n">
-        <v>0.369423143271118</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="n">
-        <v>273</v>
-      </c>
-      <c r="B647" t="n">
-        <v>0.3510846294581628</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="n">
-        <v>271</v>
-      </c>
-      <c r="B648" t="n">
-        <v>0.3586411330990056</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="n">
-        <v>260</v>
-      </c>
-      <c r="B649" t="n">
-        <v>0.3826639216755721</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="n">
-        <v>259</v>
-      </c>
-      <c r="B650" t="n">
-        <v>0.3595370747836656</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="n">
-        <v>247</v>
-      </c>
-      <c r="B651" t="n">
-        <v>0.2757106054428553</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="n">
-        <v>228</v>
-      </c>
-      <c r="B652" t="n">
-        <v>0.3660461772541713</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="n">
-        <v>207</v>
-      </c>
-      <c r="B653" t="n">
-        <v>0.3437255459855032</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="n">
-        <v>173</v>
-      </c>
-      <c r="B654" t="n">
-        <v>0.3463138756816254</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="n">
-        <v>170</v>
-      </c>
-      <c r="B655" t="n">
-        <v>0.3425437034996842</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="n">
-        <v>169</v>
-      </c>
-      <c r="B656" t="n">
-        <v>0.3091627722871675</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="n">
-        <v>168</v>
-      </c>
-      <c r="B657" t="n">
-        <v>0.3102271208405691</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="n">
-        <v>165</v>
-      </c>
-      <c r="B658" t="n">
-        <v>0.327510879894877</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="n">
-        <v>160</v>
-      </c>
-      <c r="B659" t="n">
-        <v>0.3460146174016865</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="n">
-        <v>147</v>
-      </c>
-      <c r="B660" t="n">
-        <v>0.3337528909583408</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="n">
-        <v>141</v>
-      </c>
-      <c r="B661" t="n">
-        <v>0.3428539920399264</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="n">
-        <v>136</v>
-      </c>
-      <c r="B662" t="n">
-        <v>0.3238145536246248</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="n">
-        <v>130</v>
-      </c>
-      <c r="B663" t="n">
-        <v>0.3738597503448284</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="n">
-        <v>127</v>
-      </c>
-      <c r="B664" t="n">
-        <v>0.2868448310365655</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="n">
-        <v>126</v>
-      </c>
-      <c r="B665" t="n">
-        <v>0.33504828024488</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="n">
-        <v>120</v>
-      </c>
-      <c r="B666" t="n">
-        <v>0.3480232047325228</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="n">
-        <v>118</v>
-      </c>
-      <c r="B667" t="n">
-        <v>0.3207316380240074</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="n">
-        <v>113</v>
-      </c>
-      <c r="B668" t="n">
-        <v>0.3271268286777469</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="n">
-        <v>108</v>
-      </c>
-      <c r="B669" t="n">
-        <v>0.3121683440373972</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="n">
-        <v>87</v>
-      </c>
-      <c r="B670" t="n">
-        <v>0.2650979800344567</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="n">
-        <v>60</v>
-      </c>
-      <c r="B671" t="n">
-        <v>0.3360952216154148</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="n">
-        <v>59</v>
-      </c>
-      <c r="B672" t="n">
-        <v>0.2925682016473419</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="n">
-        <v>56</v>
-      </c>
-      <c r="B673" t="n">
-        <v>0.329669521402392</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="n">
-        <v>51</v>
-      </c>
-      <c r="B674" t="n">
-        <v>0.3505126063623184</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="n">
-        <v>50</v>
-      </c>
-      <c r="B675" t="n">
-        <v>0.3357286692641849</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="n">
-        <v>47</v>
-      </c>
-      <c r="B676" t="n">
-        <v>0.344529908891315</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="n">
-        <v>26</v>
-      </c>
-      <c r="B677" t="n">
-        <v>0.350836402349693</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="n">
-        <v>10</v>
-      </c>
-      <c r="B678" t="n">
-        <v>0.3678358630899319</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="n">
-        <v>8</v>
-      </c>
-      <c r="B679" t="n">
-        <v>0.3346907633605368</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="n">
-        <v>7</v>
-      </c>
-      <c r="B680" t="n">
-        <v>0.3460090754218111</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="n">
-        <v>3</v>
-      </c>
-      <c r="B681" t="n">
         <v>0.3851913278925796</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.306210969923935</v>
       </c>
     </row>
   </sheetData>
